--- a/Table/Table_xls/npc服务总表.xlsx
+++ b/Table/Table_xls/npc服务总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AJ$1:$AJ$1017</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AJ$1:$AJ$1096</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -29,10 +29,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:
+          <t xml:space="preserve">Administrator:
 点卡服考古任务</t>
         </r>
       </text>
@@ -42,10 +43,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:
+          <t xml:space="preserve">Administrator:
 点卡服考古任务</t>
         </r>
       </text>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910">
   <si>
     <t>服务编号</t>
   </si>
@@ -1832,10 +1834,10 @@
     <t>转换职业</t>
   </si>
   <si>
-    <t>转换武器</t>
-  </si>
-  <si>
-    <t>转换宝石</t>
+    <t>装备点化</t>
+  </si>
+  <si>
+    <t>套装点化</t>
   </si>
   <si>
     <t>捕捉鬼怪</t>
@@ -2636,7 +2638,7 @@
     <t>150级★锤子</t>
   </si>
   <si>
-    <t>160级装备重铸</t>
+    <t>神器装备重铸</t>
   </si>
   <si>
     <t>武器重铸1</t>
@@ -2645,64 +2647,232 @@
     <t>武器重铸2</t>
   </si>
   <si>
-    <t>武器重铸3</t>
-  </si>
-  <si>
     <t>衣服头盔</t>
   </si>
   <si>
     <t>首饰</t>
   </si>
   <si>
-    <t>160级★剑</t>
-  </si>
-  <si>
-    <t>160级★枪</t>
-  </si>
-  <si>
-    <t>160级★斧</t>
-  </si>
-  <si>
-    <t>160级★扇</t>
-  </si>
-  <si>
-    <t>160级★棒</t>
-  </si>
-  <si>
-    <t>160级★爪</t>
-  </si>
-  <si>
-    <t>160级★镰</t>
-  </si>
-  <si>
-    <t>160级★环</t>
-  </si>
-  <si>
-    <t>160级★刀</t>
-  </si>
-  <si>
-    <t>160级★锤子</t>
-  </si>
-  <si>
-    <t>混元一气甲</t>
-  </si>
-  <si>
-    <t>鎏金浣月衣</t>
-  </si>
-  <si>
-    <t>浑天玄火盔</t>
-  </si>
-  <si>
-    <t>乾元鸣凤冕</t>
-  </si>
-  <si>
-    <t>紫霄云芒带</t>
-  </si>
-  <si>
-    <t>落霞陨星坠</t>
-  </si>
-  <si>
-    <t>辟尘分光履</t>
+    <t>神器★擒龙</t>
+  </si>
+  <si>
+    <t>神器★弑皇</t>
+  </si>
+  <si>
+    <t>神器★裂天</t>
+  </si>
+  <si>
+    <t>神器★星瀚</t>
+  </si>
+  <si>
+    <t>神器★醍醐</t>
+  </si>
+  <si>
+    <t>神器★离钩</t>
+  </si>
+  <si>
+    <t>神器★朝夕</t>
+  </si>
+  <si>
+    <t>混元一气甲★神器</t>
+  </si>
+  <si>
+    <t>鎏金浣月衣★神器</t>
+  </si>
+  <si>
+    <t>浑天玄火盔★神器</t>
+  </si>
+  <si>
+    <t>乾元鸣凤冕★神器</t>
+  </si>
+  <si>
+    <t>落霞陨星坠★神器</t>
+  </si>
+  <si>
+    <t>紫霄云芒带★神器</t>
+  </si>
+  <si>
+    <t>辟尘分光履★神器</t>
+  </si>
+  <si>
+    <t>神器+1装备重铸</t>
+  </si>
+  <si>
+    <t>神器+1★擒龙</t>
+  </si>
+  <si>
+    <t>神器+1★弑皇</t>
+  </si>
+  <si>
+    <t>神器+1★裂天</t>
+  </si>
+  <si>
+    <t>神器+1★星瀚</t>
+  </si>
+  <si>
+    <t>神器+1★醍醐</t>
+  </si>
+  <si>
+    <t>神器+1★离钩</t>
+  </si>
+  <si>
+    <t>神器+1★朝夕</t>
+  </si>
+  <si>
+    <t>混元一气甲★神器+1</t>
+  </si>
+  <si>
+    <t>鎏金浣月衣★神器+1</t>
+  </si>
+  <si>
+    <t>浑天玄火盔★神器+1</t>
+  </si>
+  <si>
+    <t>乾元鸣凤冕★神器+1</t>
+  </si>
+  <si>
+    <t>落霞陨星坠★神器+1</t>
+  </si>
+  <si>
+    <t>紫霄云芒带★神器+1</t>
+  </si>
+  <si>
+    <t>辟尘分光履★神器+1</t>
+  </si>
+  <si>
+    <t>神器+2装备重铸</t>
+  </si>
+  <si>
+    <t>神器+2★擒龙</t>
+  </si>
+  <si>
+    <t>神器+2★弑皇</t>
+  </si>
+  <si>
+    <t>神器+2★裂天</t>
+  </si>
+  <si>
+    <t>神器+2★星瀚</t>
+  </si>
+  <si>
+    <t>神器+2★醍醐</t>
+  </si>
+  <si>
+    <t>神器+2★离钩</t>
+  </si>
+  <si>
+    <t>神器+2★朝夕</t>
+  </si>
+  <si>
+    <t>混元一气甲★神器+2</t>
+  </si>
+  <si>
+    <t>鎏金浣月衣★神器+2</t>
+  </si>
+  <si>
+    <t>浑天玄火盔★神器+2</t>
+  </si>
+  <si>
+    <t>乾元鸣凤冕★神器+2</t>
+  </si>
+  <si>
+    <t>落霞陨星坠★神器+2</t>
+  </si>
+  <si>
+    <t>紫霄云芒带★神器+2</t>
+  </si>
+  <si>
+    <t>辟尘分光履★神器+2</t>
+  </si>
+  <si>
+    <t>神器+3装备重铸</t>
+  </si>
+  <si>
+    <t>神器+3★擒龙</t>
+  </si>
+  <si>
+    <t>神器+3★弑皇</t>
+  </si>
+  <si>
+    <t>神器+3★裂天</t>
+  </si>
+  <si>
+    <t>神器+3★星瀚</t>
+  </si>
+  <si>
+    <t>神器+3★醍醐</t>
+  </si>
+  <si>
+    <t>神器+3★离钩</t>
+  </si>
+  <si>
+    <t>神器+3★朝夕</t>
+  </si>
+  <si>
+    <t>混元一气甲★神器+3</t>
+  </si>
+  <si>
+    <t>鎏金浣月衣★神器+3</t>
+  </si>
+  <si>
+    <t>浑天玄火盔★神器+3</t>
+  </si>
+  <si>
+    <t>乾元鸣凤冕★神器+3</t>
+  </si>
+  <si>
+    <t>落霞陨星坠★神器+3</t>
+  </si>
+  <si>
+    <t>紫霄云芒带★神器+3</t>
+  </si>
+  <si>
+    <t>辟尘分光履★神器+3</t>
+  </si>
+  <si>
+    <t>至尊神器装备重铸</t>
+  </si>
+  <si>
+    <t>至尊神器★擒龙</t>
+  </si>
+  <si>
+    <t>至尊神器★弑皇</t>
+  </si>
+  <si>
+    <t>至尊神器★裂天</t>
+  </si>
+  <si>
+    <t>至尊神器★星瀚</t>
+  </si>
+  <si>
+    <t>至尊神器★醍醐</t>
+  </si>
+  <si>
+    <t>至尊神器★离钩</t>
+  </si>
+  <si>
+    <t>至尊神器★朝夕</t>
+  </si>
+  <si>
+    <t>混元一气甲★至尊神器</t>
+  </si>
+  <si>
+    <t>鎏金浣月衣★至尊神器</t>
+  </si>
+  <si>
+    <t>浑天玄火盔★至尊神器</t>
+  </si>
+  <si>
+    <t>乾元鸣凤冕★至尊神器</t>
+  </si>
+  <si>
+    <t>落霞陨星坠★至尊神器</t>
+  </si>
+  <si>
+    <t>紫霄云芒带★至尊神器</t>
+  </si>
+  <si>
+    <t>辟尘分光履★至尊神器</t>
   </si>
 </sst>
 </file>
@@ -2711,9 +2881,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -2851,6 +3021,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF403F3F"/>
+      <name val="Microsoft Yahei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF555555"/>
       <name val="宋体"/>
@@ -2864,6 +3040,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2872,7 +3049,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2907,9 +3084,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2920,14 +3104,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2993,24 +3169,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="46">
@@ -3112,19 +3283,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3136,7 +3307,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3148,13 +3349,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3166,97 +3379,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3274,13 +3409,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3311,6 +3482,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -3319,16 +3501,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3344,17 +3526,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3377,6 +3548,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3391,174 +3577,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3568,7 +3739,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3878,13 +4049,20 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3944,11 +4122,6 @@
     <cellStyle name="常规 3" xfId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -3961,7 +4134,7 @@
       <xdr:row>888</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="文本框 1"/>
@@ -3969,8 +4142,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="162077400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="156337000"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4108,7 +4281,7 @@
       <xdr:row>888</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="文本框 2"/>
@@ -4116,8 +4289,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="162077400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="156337000"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4255,7 +4428,7 @@
       <xdr:row>888</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="文本框 3"/>
@@ -4263,8 +4436,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="162077400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="156337000"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4402,7 +4575,7 @@
       <xdr:row>888</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="文本框 4"/>
@@ -4410,8 +4583,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="162077400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="156337000"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4549,7 +4722,7 @@
       <xdr:row>893</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="文本框 5"/>
@@ -4557,8 +4730,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="162966400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="157194250"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4696,7 +4869,7 @@
       <xdr:row>893</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="文本框 6"/>
@@ -4704,8 +4877,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="162966400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="157194250"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4843,7 +5016,7 @@
       <xdr:row>893</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="文本框 7"/>
@@ -4851,8 +5024,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="162966400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="157194250"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4990,7 +5163,7 @@
       <xdr:row>893</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="文本框 8"/>
@@ -4998,8 +5171,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="162966400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="157194250"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5137,7 +5310,7 @@
       <xdr:row>892</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="文本框 9"/>
@@ -5145,8 +5318,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="162788600"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="157022800"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5284,7 +5457,7 @@
       <xdr:row>892</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="文本框 10"/>
@@ -5292,8 +5465,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="162788600"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="157022800"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5431,7 +5604,7 @@
       <xdr:row>892</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="文本框 11"/>
@@ -5439,8 +5612,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="162788600"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="157022800"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5578,7 +5751,7 @@
       <xdr:row>892</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="文本框 12"/>
@@ -5586,8 +5759,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="162788600"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="157022800"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5725,7 +5898,7 @@
       <xdr:row>896</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="文本框 13"/>
@@ -5733,8 +5906,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="163499800"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="157708600"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5872,7 +6045,7 @@
       <xdr:row>896</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="文本框 14"/>
@@ -5880,8 +6053,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="163499800"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="157708600"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6019,7 +6192,7 @@
       <xdr:row>896</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="文本框 15"/>
@@ -6027,8 +6200,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="163499800"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="157708600"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6166,7 +6339,7 @@
       <xdr:row>896</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="文本框 16"/>
@@ -6174,8 +6347,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="163499800"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="157708600"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6313,7 +6486,7 @@
       <xdr:row>895</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="文本框 17"/>
@@ -6321,8 +6494,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="163322000"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="157537150"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6460,7 +6633,7 @@
       <xdr:row>895</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="文本框 18"/>
@@ -6468,8 +6641,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="163322000"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="157537150"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6607,7 +6780,7 @@
       <xdr:row>895</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="文本框 19"/>
@@ -6615,8 +6788,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="163322000"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="157537150"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6754,7 +6927,7 @@
       <xdr:row>895</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="文本框 20"/>
@@ -6762,8 +6935,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="163322000"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="157537150"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6901,7 +7074,7 @@
       <xdr:row>899</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="文本框 21"/>
@@ -6909,8 +7082,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="164033200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="158222950"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7048,7 +7221,7 @@
       <xdr:row>899</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="文本框 22"/>
@@ -7056,8 +7229,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="164033200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="158222950"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7195,7 +7368,7 @@
       <xdr:row>899</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="文本框 23"/>
@@ -7203,8 +7376,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="164033200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="158222950"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7342,7 +7515,7 @@
       <xdr:row>899</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="文本框 24"/>
@@ -7350,8 +7523,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="164033200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="158222950"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7489,7 +7662,7 @@
       <xdr:row>898</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="26" name="文本框 25"/>
@@ -7497,8 +7670,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="163855400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="158051500"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7636,7 +7809,7 @@
       <xdr:row>898</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="27" name="文本框 26"/>
@@ -7644,8 +7817,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="163855400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="158051500"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7783,7 +7956,7 @@
       <xdr:row>898</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="28" name="文本框 27"/>
@@ -7791,8 +7964,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="163855400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="158051500"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7930,7 +8103,7 @@
       <xdr:row>898</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="29" name="文本框 28"/>
@@ -7938,8 +8111,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="163855400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="158051500"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8077,7 +8250,7 @@
       <xdr:row>902</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="30" name="文本框 29"/>
@@ -8085,8 +8258,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="164566600"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="158737300"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8224,7 +8397,7 @@
       <xdr:row>902</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="31" name="文本框 30"/>
@@ -8232,8 +8405,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="164566600"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="158737300"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8371,7 +8544,7 @@
       <xdr:row>902</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="32" name="文本框 31"/>
@@ -8379,8 +8552,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="164566600"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="158737300"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8518,7 +8691,7 @@
       <xdr:row>902</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="33" name="文本框 32"/>
@@ -8526,8 +8699,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="164566600"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="158737300"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8665,7 +8838,7 @@
       <xdr:row>901</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="34" name="文本框 33"/>
@@ -8673,8 +8846,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="164388800"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="158565850"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8812,7 +8985,7 @@
       <xdr:row>901</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="35" name="文本框 34"/>
@@ -8820,8 +8993,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="164388800"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="158565850"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8959,7 +9132,7 @@
       <xdr:row>901</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="36" name="文本框 35"/>
@@ -8967,8 +9140,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="164388800"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="158565850"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9106,7 +9279,7 @@
       <xdr:row>901</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="37" name="文本框 36"/>
@@ -9114,8 +9287,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="164388800"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="158565850"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9253,7 +9426,7 @@
       <xdr:row>905</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="38" name="文本框 37"/>
@@ -9261,8 +9434,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="165100000"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="159251650"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9400,7 +9573,7 @@
       <xdr:row>905</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="39" name="文本框 38"/>
@@ -9408,8 +9581,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="165100000"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="159251650"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9547,7 +9720,7 @@
       <xdr:row>905</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="40" name="文本框 39"/>
@@ -9555,8 +9728,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="165100000"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="159251650"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9694,7 +9867,7 @@
       <xdr:row>905</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="41" name="文本框 40"/>
@@ -9702,8 +9875,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="165100000"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="159251650"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9841,7 +10014,7 @@
       <xdr:row>904</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="42" name="文本框 41"/>
@@ -9849,8 +10022,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="164922200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="159080200"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9988,7 +10161,7 @@
       <xdr:row>904</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="43" name="文本框 42"/>
@@ -9996,8 +10169,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="164922200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="159080200"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10135,7 +10308,7 @@
       <xdr:row>904</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="44" name="文本框 43"/>
@@ -10143,8 +10316,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="164922200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="159080200"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10282,7 +10455,7 @@
       <xdr:row>904</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="45" name="文本框 44"/>
@@ -10290,8 +10463,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="164922200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="159080200"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10429,7 +10602,7 @@
       <xdr:row>908</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="46" name="文本框 45"/>
@@ -10437,8 +10610,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="165633400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="159766000"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10576,7 +10749,7 @@
       <xdr:row>908</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="47" name="文本框 46"/>
@@ -10584,8 +10757,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="165633400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="159766000"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10723,7 +10896,7 @@
       <xdr:row>908</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="48" name="文本框 47"/>
@@ -10731,8 +10904,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="165633400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="159766000"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10870,7 +11043,7 @@
       <xdr:row>908</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="49" name="文本框 48"/>
@@ -10878,8 +11051,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="165633400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="159766000"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11017,7 +11190,7 @@
       <xdr:row>907</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="50" name="文本框 49"/>
@@ -11025,8 +11198,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="165455600"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="159594550"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11164,7 +11337,7 @@
       <xdr:row>907</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="51" name="文本框 50"/>
@@ -11172,8 +11345,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="165455600"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="159594550"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11311,7 +11484,7 @@
       <xdr:row>907</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="52" name="文本框 51"/>
@@ -11319,8 +11492,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="165455600"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="159594550"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11458,7 +11631,7 @@
       <xdr:row>907</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="53" name="文本框 52"/>
@@ -11466,8 +11639,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="165455600"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="159594550"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11605,7 +11778,7 @@
       <xdr:row>911</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="54" name="文本框 53"/>
@@ -11613,8 +11786,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="166166800"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="160280350"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11752,7 +11925,7 @@
       <xdr:row>911</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="55" name="文本框 54"/>
@@ -11760,8 +11933,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="166166800"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="160280350"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11899,7 +12072,7 @@
       <xdr:row>911</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="56" name="文本框 55"/>
@@ -11907,8 +12080,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="166166800"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="160280350"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12046,7 +12219,7 @@
       <xdr:row>911</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="57" name="文本框 56"/>
@@ -12054,8 +12227,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="166166800"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="160280350"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12193,7 +12366,7 @@
       <xdr:row>910</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="58" name="文本框 57"/>
@@ -12201,8 +12374,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="165989000"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="160108900"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12340,7 +12513,7 @@
       <xdr:row>910</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="59" name="文本框 58"/>
@@ -12348,8 +12521,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="165989000"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="160108900"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12487,7 +12660,7 @@
       <xdr:row>910</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="60" name="文本框 59"/>
@@ -12495,8 +12668,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="165989000"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="160108900"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12634,7 +12807,7 @@
       <xdr:row>910</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="61" name="文本框 60"/>
@@ -12642,8 +12815,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="165989000"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="160108900"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12781,7 +12954,7 @@
       <xdr:row>914</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="62" name="文本框 61"/>
@@ -12789,8 +12962,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="166700200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="160794700"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12928,7 +13101,7 @@
       <xdr:row>914</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="63" name="文本框 62"/>
@@ -12936,8 +13109,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="166700200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="160794700"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13075,7 +13248,7 @@
       <xdr:row>914</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="64" name="文本框 63"/>
@@ -13083,8 +13256,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="166700200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="160794700"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13222,7 +13395,7 @@
       <xdr:row>914</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="65" name="文本框 64"/>
@@ -13230,8 +13403,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="166700200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="160794700"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13369,7 +13542,7 @@
       <xdr:row>913</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="66" name="文本框 65"/>
@@ -13377,8 +13550,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="166522400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="160623250"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13516,7 +13689,7 @@
       <xdr:row>913</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="67" name="文本框 66"/>
@@ -13524,8 +13697,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="166522400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="160623250"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13663,7 +13836,7 @@
       <xdr:row>913</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="68" name="文本框 67"/>
@@ -13671,8 +13844,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="166522400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="160623250"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13810,7 +13983,7 @@
       <xdr:row>913</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="69" name="文本框 68"/>
@@ -13818,8 +13991,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="166522400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="160623250"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13957,7 +14130,7 @@
       <xdr:row>919</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="70" name="文本框 69"/>
@@ -13965,8 +14138,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="167589200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="161651950"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14104,7 +14277,7 @@
       <xdr:row>919</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="71" name="文本框 70"/>
@@ -14112,8 +14285,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="167589200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="161651950"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14251,7 +14424,7 @@
       <xdr:row>919</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="72" name="文本框 71"/>
@@ -14259,8 +14432,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="167589200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="161651950"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14398,7 +14571,7 @@
       <xdr:row>919</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="73" name="文本框 72"/>
@@ -14406,8 +14579,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="167589200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="161651950"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14545,7 +14718,7 @@
       <xdr:row>924</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="74" name="文本框 73"/>
@@ -14553,8 +14726,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="168478200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="162509200"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14692,7 +14865,7 @@
       <xdr:row>924</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="75" name="文本框 74"/>
@@ -14700,8 +14873,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="168478200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="162509200"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14839,7 +15012,7 @@
       <xdr:row>924</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="76" name="文本框 75"/>
@@ -14847,8 +15020,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="168478200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="162509200"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14986,7 +15159,7 @@
       <xdr:row>924</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="77" name="文本框 76"/>
@@ -14994,8 +15167,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="168478200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="162509200"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15133,7 +15306,7 @@
       <xdr:row>923</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="78" name="文本框 77"/>
@@ -15141,8 +15314,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="168300400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="162337750"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15280,7 +15453,7 @@
       <xdr:row>923</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="79" name="文本框 78"/>
@@ -15288,8 +15461,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="168300400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="162337750"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15427,7 +15600,7 @@
       <xdr:row>923</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="80" name="文本框 79"/>
@@ -15435,8 +15608,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="168300400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="162337750"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15574,7 +15747,7 @@
       <xdr:row>923</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="81" name="文本框 80"/>
@@ -15582,8 +15755,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="168300400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="162337750"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15721,7 +15894,7 @@
       <xdr:row>927</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="82" name="文本框 81"/>
@@ -15729,8 +15902,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="169011600"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="163023550"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15868,7 +16041,7 @@
       <xdr:row>927</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="83" name="文本框 82"/>
@@ -15876,8 +16049,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="169011600"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="163023550"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16015,7 +16188,7 @@
       <xdr:row>927</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="84" name="文本框 83"/>
@@ -16023,8 +16196,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="169011600"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="163023550"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16162,7 +16335,7 @@
       <xdr:row>927</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="85" name="文本框 84"/>
@@ -16170,8 +16343,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="169011600"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="163023550"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16309,7 +16482,7 @@
       <xdr:row>926</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="86" name="文本框 85"/>
@@ -16317,8 +16490,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="168833800"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="162852100"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16456,7 +16629,7 @@
       <xdr:row>926</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="87" name="文本框 86"/>
@@ -16464,8 +16637,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="168833800"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="162852100"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16603,7 +16776,7 @@
       <xdr:row>926</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="88" name="文本框 87"/>
@@ -16611,8 +16784,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="168833800"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="162852100"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16750,7 +16923,7 @@
       <xdr:row>926</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="89" name="文本框 88"/>
@@ -16758,8 +16931,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="168833800"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="162852100"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16897,7 +17070,7 @@
       <xdr:row>930</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="90" name="文本框 89"/>
@@ -16905,8 +17078,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="169545000"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="163537900"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17044,7 +17217,7 @@
       <xdr:row>930</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="91" name="文本框 90"/>
@@ -17052,8 +17225,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="169545000"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="163537900"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17191,7 +17364,7 @@
       <xdr:row>930</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="92" name="文本框 91"/>
@@ -17199,8 +17372,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="169545000"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="163537900"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17338,7 +17511,7 @@
       <xdr:row>930</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="93" name="文本框 92"/>
@@ -17346,8 +17519,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="169545000"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="163537900"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17485,7 +17658,7 @@
       <xdr:row>929</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="94" name="文本框 93"/>
@@ -17493,8 +17666,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="169367200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="163366450"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17632,7 +17805,7 @@
       <xdr:row>929</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="95" name="文本框 94"/>
@@ -17640,8 +17813,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="169367200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="163366450"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17779,7 +17952,7 @@
       <xdr:row>929</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="96" name="文本框 95"/>
@@ -17787,8 +17960,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="169367200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="163366450"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17926,7 +18099,7 @@
       <xdr:row>929</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="97" name="文本框 96"/>
@@ -17934,8 +18107,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="169367200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="163366450"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18073,7 +18246,7 @@
       <xdr:row>933</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="98" name="文本框 97"/>
@@ -18081,8 +18254,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="170078400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="164052250"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18220,7 +18393,7 @@
       <xdr:row>933</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="99" name="文本框 98"/>
@@ -18228,8 +18401,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="170078400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="164052250"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18367,7 +18540,7 @@
       <xdr:row>933</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="100" name="文本框 99"/>
@@ -18375,8 +18548,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="170078400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="164052250"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18514,7 +18687,7 @@
       <xdr:row>933</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="101" name="文本框 100"/>
@@ -18522,8 +18695,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="170078400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="164052250"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18661,7 +18834,7 @@
       <xdr:row>932</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="102" name="文本框 101"/>
@@ -18669,8 +18842,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="169900600"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="163880800"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18808,7 +18981,7 @@
       <xdr:row>932</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="103" name="文本框 102"/>
@@ -18816,8 +18989,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="169900600"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="163880800"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18955,7 +19128,7 @@
       <xdr:row>932</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="104" name="文本框 103"/>
@@ -18963,8 +19136,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="169900600"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="163880800"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19102,7 +19275,7 @@
       <xdr:row>932</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="105" name="文本框 104"/>
@@ -19110,8 +19283,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="169900600"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="163880800"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19249,7 +19422,7 @@
       <xdr:row>936</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="106" name="文本框 105"/>
@@ -19257,8 +19430,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="170611800"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="164566600"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19396,7 +19569,7 @@
       <xdr:row>936</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="107" name="文本框 106"/>
@@ -19404,8 +19577,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="170611800"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="164566600"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19543,7 +19716,7 @@
       <xdr:row>936</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="108" name="文本框 107"/>
@@ -19551,8 +19724,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="170611800"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="164566600"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19690,7 +19863,7 @@
       <xdr:row>936</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="109" name="文本框 108"/>
@@ -19698,8 +19871,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="170611800"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="164566600"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19837,7 +20010,7 @@
       <xdr:row>935</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="110" name="文本框 109"/>
@@ -19845,8 +20018,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="170434000"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="164395150"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19984,7 +20157,7 @@
       <xdr:row>935</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="111" name="文本框 110"/>
@@ -19992,8 +20165,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="170434000"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="164395150"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20131,7 +20304,7 @@
       <xdr:row>935</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="112" name="文本框 111"/>
@@ -20139,8 +20312,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="170434000"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="164395150"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20278,7 +20451,7 @@
       <xdr:row>935</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="113" name="文本框 112"/>
@@ -20286,8 +20459,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="170434000"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="164395150"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20425,7 +20598,7 @@
       <xdr:row>939</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="114" name="文本框 113"/>
@@ -20433,8 +20606,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="171145200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="165080950"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20572,7 +20745,7 @@
       <xdr:row>939</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="115" name="文本框 114"/>
@@ -20580,8 +20753,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="171145200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="165080950"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20719,7 +20892,7 @@
       <xdr:row>939</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="116" name="文本框 115"/>
@@ -20727,8 +20900,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="171145200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="165080950"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20866,7 +21039,7 @@
       <xdr:row>939</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="117" name="文本框 116"/>
@@ -20874,8 +21047,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="171145200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="165080950"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21013,7 +21186,7 @@
       <xdr:row>938</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="118" name="文本框 117"/>
@@ -21021,8 +21194,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="170967400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="164909500"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21160,7 +21333,7 @@
       <xdr:row>938</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="119" name="文本框 118"/>
@@ -21168,8 +21341,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="170967400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="164909500"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21307,7 +21480,7 @@
       <xdr:row>938</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="120" name="文本框 119"/>
@@ -21315,8 +21488,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="170967400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="164909500"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21454,7 +21627,7 @@
       <xdr:row>938</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="121" name="文本框 120"/>
@@ -21462,8 +21635,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="170967400"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="164909500"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21601,7 +21774,7 @@
       <xdr:row>942</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="122" name="文本框 121"/>
@@ -21609,8 +21782,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="171678600"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="165595300"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21748,7 +21921,7 @@
       <xdr:row>942</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="123" name="文本框 122"/>
@@ -21756,8 +21929,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="171678600"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="165595300"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21895,7 +22068,7 @@
       <xdr:row>942</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="124" name="文本框 123"/>
@@ -21903,8 +22076,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="171678600"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="165595300"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22042,7 +22215,7 @@
       <xdr:row>942</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="125" name="文本框 124"/>
@@ -22050,8 +22223,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="171678600"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="165595300"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22189,7 +22362,7 @@
       <xdr:row>941</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="126" name="文本框 125"/>
@@ -22197,8 +22370,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="171500800"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="165423850"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22336,7 +22509,7 @@
       <xdr:row>941</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="127" name="文本框 126"/>
@@ -22344,8 +22517,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="171500800"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="165423850"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22483,7 +22656,7 @@
       <xdr:row>941</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="128" name="文本框 127"/>
@@ -22491,8 +22664,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="171500800"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="165423850"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22630,7 +22803,7 @@
       <xdr:row>941</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="129" name="文本框 128"/>
@@ -22638,8 +22811,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="171500800"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="165423850"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22777,7 +22950,7 @@
       <xdr:row>945</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="130" name="文本框 129"/>
@@ -22785,8 +22958,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="172212000"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="166109650"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22924,7 +23097,7 @@
       <xdr:row>945</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="131" name="文本框 130"/>
@@ -22932,8 +23105,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="172212000"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="166109650"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23071,7 +23244,7 @@
       <xdr:row>945</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="132" name="文本框 131"/>
@@ -23079,8 +23252,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="172212000"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="166109650"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23218,7 +23391,7 @@
       <xdr:row>945</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="133" name="文本框 132"/>
@@ -23226,8 +23399,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="172212000"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="166109650"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23365,7 +23538,7 @@
       <xdr:row>944</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="134" name="文本框 133"/>
@@ -23373,8 +23546,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="172034200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="165938200"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23512,7 +23685,7 @@
       <xdr:row>944</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="135" name="文本框 134"/>
@@ -23520,8 +23693,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="172034200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="165938200"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23659,7 +23832,7 @@
       <xdr:row>944</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="136" name="文本框 135"/>
@@ -23667,8 +23840,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="172034200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="165938200"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23806,7 +23979,7 @@
       <xdr:row>944</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="280035"/>
+    <xdr:ext cx="309880" cy="273685"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="137" name="文本框 136"/>
@@ -23814,8 +23987,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="172034200"/>
-          <a:ext cx="309880" cy="280035"/>
+          <a:off x="6210300" y="165938200"/>
+          <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24272,30 +24445,31 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AN1017"/>
+  <dimension ref="A1:AN1096"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B621" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B648" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A629" sqref="$A629:$XFD629"/>
+      <selection pane="bottomRight" activeCell="AJ654" sqref="AJ654"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="7" width="9" style="14"/>
     <col min="8" max="34" width="9" style="14" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="9" style="14"/>
-    <col min="36" max="36" width="36.3727272727273" style="21" customWidth="1"/>
+    <col min="36" max="36" width="36.375" style="21" customWidth="1"/>
     <col min="37" max="37" width="9" style="21"/>
-    <col min="38" max="38" width="12.8727272727273" style="14" customWidth="1"/>
+    <col min="38" max="38" width="12.875" style="14" customWidth="1"/>
     <col min="39" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
@@ -29717,7 +29891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" ht="15" spans="1:39">
+    <row r="159" ht="14.25" spans="1:39">
       <c r="A159" s="27">
         <v>100011</v>
       </c>
@@ -30271,7 +30445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" ht="15" spans="1:39">
+    <row r="175" ht="14.25" spans="1:39">
       <c r="A175" s="27">
         <v>100028</v>
       </c>
@@ -30312,7 +30486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" ht="15" spans="1:39">
+    <row r="176" ht="14.25" spans="1:39">
       <c r="A176" s="27">
         <v>100029</v>
       </c>
@@ -30369,7 +30543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" ht="15" spans="1:39">
+    <row r="177" ht="14.25" spans="1:39">
       <c r="A177" s="27">
         <v>100030</v>
       </c>
@@ -30426,7 +30600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" ht="15" spans="1:39">
+    <row r="178" ht="14.25" spans="1:39">
       <c r="A178" s="27">
         <v>100031</v>
       </c>
@@ -30483,7 +30657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" ht="15" spans="1:38">
+    <row r="179" ht="14.25" spans="1:38">
       <c r="A179" s="27">
         <v>100032</v>
       </c>
@@ -30513,7 +30687,7 @@
       </c>
       <c r="AL179" s="22"/>
     </row>
-    <row r="180" ht="15" spans="1:38">
+    <row r="180" ht="14.25" spans="1:38">
       <c r="A180" s="27">
         <v>100033</v>
       </c>
@@ -30543,7 +30717,7 @@
       </c>
       <c r="AL180" s="22"/>
     </row>
-    <row r="181" ht="15" spans="1:38">
+    <row r="181" ht="14.25" spans="1:38">
       <c r="A181" s="27">
         <v>100034</v>
       </c>
@@ -30573,7 +30747,7 @@
       </c>
       <c r="AL181" s="22"/>
     </row>
-    <row r="182" s="1" customFormat="1" ht="15" spans="1:39">
+    <row r="182" s="1" customFormat="1" ht="14.25" spans="1:39">
       <c r="A182" s="28">
         <v>100035</v>
       </c>
@@ -30607,7 +30781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" s="1" customFormat="1" ht="15" spans="1:39">
+    <row r="183" s="1" customFormat="1" ht="14.25" spans="1:39">
       <c r="A183" s="28">
         <v>100036</v>
       </c>
@@ -30641,7 +30815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" s="3" customFormat="1" ht="15" spans="1:37">
+    <row r="184" s="3" customFormat="1" ht="14.25" spans="1:37">
       <c r="A184" s="27">
         <v>100037</v>
       </c>
@@ -30680,7 +30854,7 @@
       </c>
       <c r="AK184" s="38"/>
     </row>
-    <row r="185" s="3" customFormat="1" ht="15" spans="1:37">
+    <row r="185" s="3" customFormat="1" ht="14.25" spans="1:37">
       <c r="A185" s="27">
         <v>100038</v>
       </c>
@@ -30719,7 +30893,7 @@
       </c>
       <c r="AK185" s="38"/>
     </row>
-    <row r="186" s="3" customFormat="1" ht="15" spans="1:37">
+    <row r="186" s="3" customFormat="1" ht="14.25" spans="1:37">
       <c r="A186" s="27">
         <v>100039</v>
       </c>
@@ -30758,7 +30932,7 @@
       </c>
       <c r="AK186" s="38"/>
     </row>
-    <row r="187" s="3" customFormat="1" ht="15" spans="1:37">
+    <row r="187" s="3" customFormat="1" ht="14.25" spans="1:37">
       <c r="A187" s="27">
         <v>100040</v>
       </c>
@@ -30797,7 +30971,7 @@
       </c>
       <c r="AK187" s="38"/>
     </row>
-    <row r="188" s="3" customFormat="1" ht="15" spans="1:37">
+    <row r="188" s="3" customFormat="1" ht="14.25" spans="1:37">
       <c r="A188" s="27">
         <v>100041</v>
       </c>
@@ -30836,7 +31010,7 @@
       </c>
       <c r="AK188" s="38"/>
     </row>
-    <row r="189" s="3" customFormat="1" ht="15" spans="1:37">
+    <row r="189" s="3" customFormat="1" ht="14.25" spans="1:37">
       <c r="A189" s="27">
         <v>100042</v>
       </c>
@@ -30875,7 +31049,7 @@
       </c>
       <c r="AK189" s="38"/>
     </row>
-    <row r="190" s="3" customFormat="1" ht="15" spans="1:37">
+    <row r="190" s="3" customFormat="1" ht="14.25" spans="1:37">
       <c r="A190" s="27">
         <v>100043</v>
       </c>
@@ -30889,7 +31063,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="191" s="3" customFormat="1" ht="15" spans="1:37">
+    <row r="191" s="3" customFormat="1" ht="14.25" spans="1:37">
       <c r="A191" s="27">
         <v>100044</v>
       </c>
@@ -30903,7 +31077,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="192" s="3" customFormat="1" ht="15" spans="1:37">
+    <row r="192" s="3" customFormat="1" ht="14.25" spans="1:37">
       <c r="A192" s="27">
         <v>100045</v>
       </c>
@@ -30917,7 +31091,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="193" s="3" customFormat="1" ht="15" spans="1:37">
+    <row r="193" s="3" customFormat="1" ht="14.25" spans="1:37">
       <c r="A193" s="27">
         <v>100046</v>
       </c>
@@ -30931,7 +31105,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="194" s="3" customFormat="1" ht="15" spans="1:37">
+    <row r="194" s="3" customFormat="1" ht="14.25" spans="1:37">
       <c r="A194" s="27">
         <v>100047</v>
       </c>
@@ -30945,7 +31119,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="195" s="3" customFormat="1" ht="15" spans="1:37">
+    <row r="195" s="3" customFormat="1" ht="14.25" spans="1:37">
       <c r="A195" s="27">
         <v>100048</v>
       </c>
@@ -30959,7 +31133,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="196" s="4" customFormat="1" ht="15" spans="1:38">
+    <row r="196" s="4" customFormat="1" ht="14.25" spans="1:38">
       <c r="A196" s="39">
         <v>100049</v>
       </c>
@@ -30999,7 +31173,7 @@
       <c r="AK196" s="47"/>
       <c r="AL196" s="40"/>
     </row>
-    <row r="197" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="197" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A197" s="28">
         <v>100051</v>
       </c>
@@ -31030,7 +31204,7 @@
       <c r="AK197" s="34"/>
       <c r="AL197" s="24"/>
     </row>
-    <row r="198" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="198" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A198" s="28">
         <v>100052</v>
       </c>
@@ -31061,7 +31235,7 @@
       <c r="AK198" s="34"/>
       <c r="AL198" s="24"/>
     </row>
-    <row r="199" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="199" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A199" s="28">
         <v>100053</v>
       </c>
@@ -31092,7 +31266,7 @@
       <c r="AK199" s="34"/>
       <c r="AL199" s="24"/>
     </row>
-    <row r="200" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="200" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A200" s="28">
         <v>100054</v>
       </c>
@@ -31123,7 +31297,7 @@
       <c r="AK200" s="34"/>
       <c r="AL200" s="24"/>
     </row>
-    <row r="201" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="201" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A201" s="28">
         <v>100055</v>
       </c>
@@ -31154,7 +31328,7 @@
       <c r="AK201" s="34"/>
       <c r="AL201" s="24"/>
     </row>
-    <row r="202" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="202" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A202" s="41">
         <v>100061</v>
       </c>
@@ -31185,7 +31359,7 @@
       <c r="AK202" s="50"/>
       <c r="AL202" s="42"/>
     </row>
-    <row r="203" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="203" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A203" s="41">
         <v>100062</v>
       </c>
@@ -31216,7 +31390,7 @@
       <c r="AK203" s="50"/>
       <c r="AL203" s="42"/>
     </row>
-    <row r="204" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="204" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A204" s="41">
         <v>100063</v>
       </c>
@@ -31247,7 +31421,7 @@
       <c r="AK204" s="50"/>
       <c r="AL204" s="42"/>
     </row>
-    <row r="205" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="205" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A205" s="41">
         <v>100064</v>
       </c>
@@ -31278,7 +31452,7 @@
       <c r="AK205" s="50"/>
       <c r="AL205" s="42"/>
     </row>
-    <row r="206" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="206" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A206" s="41">
         <v>100065</v>
       </c>
@@ -31309,7 +31483,7 @@
       <c r="AK206" s="50"/>
       <c r="AL206" s="42"/>
     </row>
-    <row r="207" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="207" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A207" s="28">
         <v>100071</v>
       </c>
@@ -31340,7 +31514,7 @@
       <c r="AK207" s="34"/>
       <c r="AL207" s="24"/>
     </row>
-    <row r="208" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="208" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A208" s="28">
         <v>100072</v>
       </c>
@@ -31371,7 +31545,7 @@
       <c r="AK208" s="34"/>
       <c r="AL208" s="24"/>
     </row>
-    <row r="209" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="209" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A209" s="28">
         <v>100073</v>
       </c>
@@ -31402,7 +31576,7 @@
       <c r="AK209" s="34"/>
       <c r="AL209" s="24"/>
     </row>
-    <row r="210" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="210" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A210" s="28">
         <v>100074</v>
       </c>
@@ -31433,7 +31607,7 @@
       <c r="AK210" s="34"/>
       <c r="AL210" s="24"/>
     </row>
-    <row r="211" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="211" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A211" s="28">
         <v>100075</v>
       </c>
@@ -31464,7 +31638,7 @@
       <c r="AK211" s="34"/>
       <c r="AL211" s="24"/>
     </row>
-    <row r="212" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="212" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A212" s="41">
         <v>100081</v>
       </c>
@@ -31495,7 +31669,7 @@
       <c r="AK212" s="50"/>
       <c r="AL212" s="42"/>
     </row>
-    <row r="213" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="213" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A213" s="41">
         <v>100082</v>
       </c>
@@ -31526,7 +31700,7 @@
       <c r="AK213" s="50"/>
       <c r="AL213" s="42"/>
     </row>
-    <row r="214" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="214" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A214" s="41">
         <v>100083</v>
       </c>
@@ -31557,7 +31731,7 @@
       <c r="AK214" s="50"/>
       <c r="AL214" s="42"/>
     </row>
-    <row r="215" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="215" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A215" s="41">
         <v>100084</v>
       </c>
@@ -31588,7 +31762,7 @@
       <c r="AK215" s="50"/>
       <c r="AL215" s="42"/>
     </row>
-    <row r="216" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="216" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A216" s="41">
         <v>100085</v>
       </c>
@@ -31619,7 +31793,7 @@
       <c r="AK216" s="50"/>
       <c r="AL216" s="42"/>
     </row>
-    <row r="217" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="217" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A217" s="28">
         <v>100091</v>
       </c>
@@ -31650,7 +31824,7 @@
       <c r="AK217" s="34"/>
       <c r="AL217" s="24"/>
     </row>
-    <row r="218" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="218" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A218" s="28">
         <v>100092</v>
       </c>
@@ -31681,7 +31855,7 @@
       <c r="AK218" s="34"/>
       <c r="AL218" s="24"/>
     </row>
-    <row r="219" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="219" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A219" s="28">
         <v>100093</v>
       </c>
@@ -31712,7 +31886,7 @@
       <c r="AK219" s="34"/>
       <c r="AL219" s="24"/>
     </row>
-    <row r="220" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="220" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A220" s="28">
         <v>100094</v>
       </c>
@@ -31743,7 +31917,7 @@
       <c r="AK220" s="34"/>
       <c r="AL220" s="24"/>
     </row>
-    <row r="221" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="221" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A221" s="28">
         <v>100095</v>
       </c>
@@ -31774,7 +31948,7 @@
       <c r="AK221" s="34"/>
       <c r="AL221" s="24"/>
     </row>
-    <row r="222" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="222" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A222" s="41">
         <v>100101</v>
       </c>
@@ -31805,7 +31979,7 @@
       <c r="AK222" s="50"/>
       <c r="AL222" s="42"/>
     </row>
-    <row r="223" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="223" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A223" s="41">
         <v>100102</v>
       </c>
@@ -31836,7 +32010,7 @@
       <c r="AK223" s="50"/>
       <c r="AL223" s="42"/>
     </row>
-    <row r="224" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="224" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A224" s="41">
         <v>100103</v>
       </c>
@@ -31867,7 +32041,7 @@
       <c r="AK224" s="50"/>
       <c r="AL224" s="42"/>
     </row>
-    <row r="225" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="225" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A225" s="41">
         <v>100104</v>
       </c>
@@ -31898,7 +32072,7 @@
       <c r="AK225" s="50"/>
       <c r="AL225" s="42"/>
     </row>
-    <row r="226" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="226" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A226" s="41">
         <v>100105</v>
       </c>
@@ -31929,7 +32103,7 @@
       <c r="AK226" s="50"/>
       <c r="AL226" s="42"/>
     </row>
-    <row r="227" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="227" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A227" s="28">
         <v>100111</v>
       </c>
@@ -31960,7 +32134,7 @@
       <c r="AK227" s="34"/>
       <c r="AL227" s="24"/>
     </row>
-    <row r="228" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="228" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A228" s="28">
         <v>100112</v>
       </c>
@@ -31991,7 +32165,7 @@
       <c r="AK228" s="34"/>
       <c r="AL228" s="24"/>
     </row>
-    <row r="229" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="229" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A229" s="28">
         <v>100113</v>
       </c>
@@ -32022,7 +32196,7 @@
       <c r="AK229" s="34"/>
       <c r="AL229" s="24"/>
     </row>
-    <row r="230" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="230" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A230" s="28">
         <v>100114</v>
       </c>
@@ -32053,7 +32227,7 @@
       <c r="AK230" s="34"/>
       <c r="AL230" s="24"/>
     </row>
-    <row r="231" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="231" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A231" s="28">
         <v>100115</v>
       </c>
@@ -32084,7 +32258,7 @@
       <c r="AK231" s="34"/>
       <c r="AL231" s="24"/>
     </row>
-    <row r="232" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="232" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A232" s="41">
         <v>100121</v>
       </c>
@@ -32115,7 +32289,7 @@
       <c r="AK232" s="50"/>
       <c r="AL232" s="42"/>
     </row>
-    <row r="233" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="233" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A233" s="41">
         <v>100122</v>
       </c>
@@ -32146,7 +32320,7 @@
       <c r="AK233" s="50"/>
       <c r="AL233" s="42"/>
     </row>
-    <row r="234" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="234" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A234" s="41">
         <v>100123</v>
       </c>
@@ -32177,7 +32351,7 @@
       <c r="AK234" s="50"/>
       <c r="AL234" s="42"/>
     </row>
-    <row r="235" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="235" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A235" s="41">
         <v>100124</v>
       </c>
@@ -32208,7 +32382,7 @@
       <c r="AK235" s="50"/>
       <c r="AL235" s="42"/>
     </row>
-    <row r="236" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="236" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A236" s="41">
         <v>100125</v>
       </c>
@@ -32239,7 +32413,7 @@
       <c r="AK236" s="50"/>
       <c r="AL236" s="42"/>
     </row>
-    <row r="237" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="237" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A237" s="28">
         <v>100131</v>
       </c>
@@ -32270,7 +32444,7 @@
       <c r="AK237" s="34"/>
       <c r="AL237" s="24"/>
     </row>
-    <row r="238" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="238" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A238" s="28">
         <v>100132</v>
       </c>
@@ -32301,7 +32475,7 @@
       <c r="AK238" s="34"/>
       <c r="AL238" s="24"/>
     </row>
-    <row r="239" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="239" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A239" s="28">
         <v>100133</v>
       </c>
@@ -32332,7 +32506,7 @@
       <c r="AK239" s="34"/>
       <c r="AL239" s="24"/>
     </row>
-    <row r="240" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="240" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A240" s="28">
         <v>100134</v>
       </c>
@@ -32363,7 +32537,7 @@
       <c r="AK240" s="34"/>
       <c r="AL240" s="24"/>
     </row>
-    <row r="241" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="241" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A241" s="28">
         <v>100135</v>
       </c>
@@ -32394,7 +32568,7 @@
       <c r="AK241" s="34"/>
       <c r="AL241" s="24"/>
     </row>
-    <row r="242" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="242" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A242" s="41">
         <v>100141</v>
       </c>
@@ -32425,7 +32599,7 @@
       <c r="AK242" s="50"/>
       <c r="AL242" s="42"/>
     </row>
-    <row r="243" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="243" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A243" s="41">
         <v>100142</v>
       </c>
@@ -32456,7 +32630,7 @@
       <c r="AK243" s="50"/>
       <c r="AL243" s="42"/>
     </row>
-    <row r="244" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="244" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A244" s="41">
         <v>100143</v>
       </c>
@@ -32487,7 +32661,7 @@
       <c r="AK244" s="50"/>
       <c r="AL244" s="42"/>
     </row>
-    <row r="245" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="245" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A245" s="41">
         <v>100144</v>
       </c>
@@ -32518,7 +32692,7 @@
       <c r="AK245" s="50"/>
       <c r="AL245" s="42"/>
     </row>
-    <row r="246" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="246" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A246" s="41">
         <v>100145</v>
       </c>
@@ -32549,7 +32723,7 @@
       <c r="AK246" s="50"/>
       <c r="AL246" s="42"/>
     </row>
-    <row r="247" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="247" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A247" s="28">
         <v>100151</v>
       </c>
@@ -32580,7 +32754,7 @@
       <c r="AK247" s="34"/>
       <c r="AL247" s="24"/>
     </row>
-    <row r="248" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="248" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A248" s="28">
         <v>100152</v>
       </c>
@@ -32611,7 +32785,7 @@
       <c r="AK248" s="34"/>
       <c r="AL248" s="24"/>
     </row>
-    <row r="249" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="249" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A249" s="28">
         <v>100153</v>
       </c>
@@ -32642,7 +32816,7 @@
       <c r="AK249" s="34"/>
       <c r="AL249" s="24"/>
     </row>
-    <row r="250" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="250" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A250" s="28">
         <v>100154</v>
       </c>
@@ -32673,7 +32847,7 @@
       <c r="AK250" s="34"/>
       <c r="AL250" s="24"/>
     </row>
-    <row r="251" s="1" customFormat="1" ht="15" spans="1:38">
+    <row r="251" s="1" customFormat="1" ht="14.25" spans="1:38">
       <c r="A251" s="28">
         <v>100155</v>
       </c>
@@ -32704,7 +32878,7 @@
       <c r="AK251" s="34"/>
       <c r="AL251" s="24"/>
     </row>
-    <row r="252" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="252" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A252" s="41">
         <v>100161</v>
       </c>
@@ -32735,7 +32909,7 @@
       <c r="AK252" s="50"/>
       <c r="AL252" s="42"/>
     </row>
-    <row r="253" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="253" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A253" s="41">
         <v>100162</v>
       </c>
@@ -32766,7 +32940,7 @@
       <c r="AK253" s="50"/>
       <c r="AL253" s="42"/>
     </row>
-    <row r="254" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="254" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A254" s="41">
         <v>100163</v>
       </c>
@@ -32797,7 +32971,7 @@
       <c r="AK254" s="50"/>
       <c r="AL254" s="42"/>
     </row>
-    <row r="255" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="255" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A255" s="41">
         <v>100164</v>
       </c>
@@ -32828,7 +33002,7 @@
       <c r="AK255" s="50"/>
       <c r="AL255" s="42"/>
     </row>
-    <row r="256" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="256" s="5" customFormat="1" ht="14.25" spans="1:38">
       <c r="A256" s="41">
         <v>100165</v>
       </c>
@@ -32859,7 +33033,7 @@
       <c r="AK256" s="50"/>
       <c r="AL256" s="42"/>
     </row>
-    <row r="257" s="5" customFormat="1" ht="15" spans="1:39">
+    <row r="257" s="5" customFormat="1" ht="14.25" spans="1:39">
       <c r="A257" s="28">
         <v>100171</v>
       </c>
@@ -32893,7 +33067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" s="5" customFormat="1" ht="15" spans="1:39">
+    <row r="258" s="5" customFormat="1" ht="14.25" spans="1:39">
       <c r="A258" s="28">
         <v>100172</v>
       </c>
@@ -32927,7 +33101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" s="5" customFormat="1" ht="15" spans="1:39">
+    <row r="259" s="5" customFormat="1" ht="14.25" spans="1:39">
       <c r="A259" s="28">
         <v>100173</v>
       </c>
@@ -32961,7 +33135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" s="5" customFormat="1" ht="15" spans="1:39">
+    <row r="260" s="5" customFormat="1" ht="14.25" spans="1:39">
       <c r="A260" s="28">
         <v>100174</v>
       </c>
@@ -32995,7 +33169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" s="5" customFormat="1" ht="15" spans="1:39">
+    <row r="261" s="5" customFormat="1" ht="14.25" spans="1:39">
       <c r="A261" s="28">
         <v>100175</v>
       </c>
@@ -33029,7 +33203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" s="5" customFormat="1" ht="15" spans="1:39">
+    <row r="262" s="5" customFormat="1" ht="14.25" spans="1:39">
       <c r="A262" s="28">
         <v>100176</v>
       </c>
@@ -33063,7 +33237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" s="5" customFormat="1" ht="15" spans="1:39">
+    <row r="263" s="5" customFormat="1" ht="14.25" spans="1:39">
       <c r="A263" s="28">
         <v>100177</v>
       </c>
@@ -33097,7 +33271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" ht="15" spans="1:39">
+    <row r="264" s="5" customFormat="1" ht="14.25" spans="1:39">
       <c r="A264" s="28">
         <v>100178</v>
       </c>
@@ -33131,7 +33305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" s="5" customFormat="1" ht="15" spans="1:39">
+    <row r="265" s="5" customFormat="1" ht="14.25" spans="1:39">
       <c r="A265" s="28">
         <v>100179</v>
       </c>
@@ -33165,7 +33339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" s="5" customFormat="1" ht="15" spans="1:39">
+    <row r="266" s="5" customFormat="1" ht="14.25" spans="1:39">
       <c r="A266" s="28">
         <v>100180</v>
       </c>
@@ -33199,7 +33373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" s="5" customFormat="1" ht="15" spans="1:39">
+    <row r="267" s="5" customFormat="1" ht="14.25" spans="1:39">
       <c r="A267" s="28">
         <v>100181</v>
       </c>
@@ -33233,7 +33407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" s="5" customFormat="1" ht="15" spans="1:39">
+    <row r="268" s="5" customFormat="1" ht="14.25" spans="1:39">
       <c r="A268" s="28">
         <v>100182</v>
       </c>
@@ -33267,7 +33441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" ht="15" spans="1:39">
+    <row r="269" ht="14.25" spans="1:39">
       <c r="A269" s="28">
         <v>100183</v>
       </c>
@@ -33290,7 +33464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" ht="15" spans="1:40">
+    <row r="270" ht="14.25" spans="1:40">
       <c r="A270" s="28">
         <v>100184</v>
       </c>
@@ -33316,7 +33490,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="271" ht="15" spans="1:39">
+    <row r="271" ht="14.25" spans="1:39">
       <c r="A271" s="53">
         <v>100185</v>
       </c>
@@ -33363,7 +33537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" ht="15" spans="1:39">
+    <row r="272" ht="14.25" spans="1:39">
       <c r="A272" s="28">
         <v>100186</v>
       </c>
@@ -33386,7 +33560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" ht="15" spans="1:39">
+    <row r="273" ht="14.25" spans="1:39">
       <c r="A273" s="53">
         <v>100187</v>
       </c>
@@ -33409,7 +33583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" ht="15" spans="1:39">
+    <row r="274" ht="14.25" spans="1:39">
       <c r="A274" s="28">
         <v>100188</v>
       </c>
@@ -33432,7 +33606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" ht="15" spans="1:39">
+    <row r="275" ht="14.25" spans="1:39">
       <c r="A275" s="53">
         <v>100189</v>
       </c>
@@ -33455,7 +33629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" s="6" customFormat="1" ht="15" spans="1:39">
+    <row r="276" s="6" customFormat="1" ht="14.25" spans="1:39">
       <c r="A276" s="55">
         <v>100191</v>
       </c>
@@ -33479,7 +33653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" s="6" customFormat="1" ht="15" spans="1:39">
+    <row r="277" s="6" customFormat="1" ht="14.25" spans="1:39">
       <c r="A277" s="55">
         <v>100192</v>
       </c>
@@ -33503,7 +33677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" s="6" customFormat="1" ht="15" spans="1:39">
+    <row r="278" s="6" customFormat="1" ht="14.25" spans="1:39">
       <c r="A278" s="55">
         <v>100193</v>
       </c>
@@ -33527,7 +33701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" s="6" customFormat="1" ht="15" spans="1:39">
+    <row r="279" s="6" customFormat="1" ht="14.25" spans="1:39">
       <c r="A279" s="55">
         <v>100194</v>
       </c>
@@ -33551,7 +33725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" s="6" customFormat="1" ht="15" spans="1:39">
+    <row r="280" s="6" customFormat="1" ht="14.25" spans="1:39">
       <c r="A280" s="55">
         <v>100195</v>
       </c>
@@ -33575,7 +33749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" s="6" customFormat="1" ht="15" spans="1:39">
+    <row r="281" s="6" customFormat="1" ht="14.25" spans="1:39">
       <c r="A281" s="55">
         <v>100196</v>
       </c>
@@ -33599,7 +33773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" s="6" customFormat="1" ht="15" spans="1:39">
+    <row r="282" s="6" customFormat="1" ht="14.25" spans="1:39">
       <c r="A282" s="55">
         <v>100197</v>
       </c>
@@ -33623,7 +33797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" s="6" customFormat="1" ht="15" spans="1:39">
+    <row r="283" s="6" customFormat="1" ht="14.25" spans="1:39">
       <c r="A283" s="55">
         <v>100198</v>
       </c>
@@ -33647,7 +33821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" s="6" customFormat="1" ht="15" spans="1:39">
+    <row r="284" s="6" customFormat="1" ht="14.25" spans="1:39">
       <c r="A284" s="55">
         <v>100199</v>
       </c>
@@ -33671,7 +33845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" s="6" customFormat="1" ht="15" spans="1:39">
+    <row r="285" s="6" customFormat="1" ht="14.25" spans="1:39">
       <c r="A285" s="55">
         <v>100200</v>
       </c>
@@ -41530,7 +41704,7 @@
       </c>
       <c r="AL657" s="22"/>
     </row>
-    <row r="658" s="3" customFormat="1" ht="15" spans="1:39">
+    <row r="658" s="3" customFormat="1" ht="14.25" spans="1:39">
       <c r="A658" s="27">
         <v>999001</v>
       </c>
@@ -41564,7 +41738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" s="3" customFormat="1" ht="15" spans="1:39">
+    <row r="659" s="3" customFormat="1" ht="14.25" spans="1:39">
       <c r="A659" s="27">
         <v>999002</v>
       </c>
@@ -41586,7 +41760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" s="3" customFormat="1" ht="15" spans="1:39">
+    <row r="660" s="3" customFormat="1" ht="14.25" spans="1:39">
       <c r="A660" s="27">
         <v>999003</v>
       </c>
@@ -41608,7 +41782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" s="3" customFormat="1" ht="15" spans="1:39">
+    <row r="661" s="3" customFormat="1" ht="14.25" spans="1:39">
       <c r="A661" s="27">
         <v>999004</v>
       </c>
@@ -41642,7 +41816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" s="3" customFormat="1" ht="15" spans="1:39">
+    <row r="662" s="3" customFormat="1" ht="14.25" spans="1:39">
       <c r="A662" s="27">
         <v>999005</v>
       </c>
@@ -41664,7 +41838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" s="3" customFormat="1" ht="15" spans="1:37">
+    <row r="663" s="3" customFormat="1" ht="14.25" spans="1:37">
       <c r="A663" s="27">
         <v>999006</v>
       </c>
@@ -49660,7 +49834,7 @@
       <c r="AK855" s="34"/>
       <c r="AL855" s="24"/>
     </row>
-    <row r="856" s="14" customFormat="1" ht="15" spans="1:39">
+    <row r="856" s="14" customFormat="1" ht="14.25" spans="1:39">
       <c r="A856" s="27">
         <v>999250</v>
       </c>
@@ -49718,7 +49892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="857" s="14" customFormat="1" ht="15" spans="1:39">
+    <row r="857" s="14" customFormat="1" ht="14.25" spans="1:39">
       <c r="A857" s="27">
         <v>999251</v>
       </c>
@@ -49776,7 +49950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" s="14" customFormat="1" ht="15" spans="1:39">
+    <row r="858" s="14" customFormat="1" ht="14.25" spans="1:39">
       <c r="A858" s="27">
         <v>999252</v>
       </c>
@@ -49834,7 +50008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" s="14" customFormat="1" ht="15" spans="1:39">
+    <row r="859" s="14" customFormat="1" ht="14.25" spans="1:39">
       <c r="A859" s="27">
         <v>999221</v>
       </c>
@@ -49892,7 +50066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="860" s="14" customFormat="1" ht="15" spans="1:39">
+    <row r="860" s="14" customFormat="1" ht="14.25" spans="1:39">
       <c r="A860" s="27">
         <v>999222</v>
       </c>
@@ -49950,7 +50124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="861" s="14" customFormat="1" ht="15" spans="1:39">
+    <row r="861" s="14" customFormat="1" ht="14.25" spans="1:39">
       <c r="A861" s="27">
         <v>999223</v>
       </c>
@@ -51661,7 +51835,7 @@
       </c>
       <c r="AK971" s="18"/>
     </row>
-    <row r="972" s="14" customFormat="1" ht="16.5" spans="1:37">
+    <row r="972" s="14" customFormat="1" ht="17.25" spans="1:37">
       <c r="A972" s="14">
         <v>850025</v>
       </c>
@@ -51670,7 +51844,7 @@
       </c>
       <c r="AK972" s="21"/>
     </row>
-    <row r="973" s="14" customFormat="1" ht="15" spans="1:37">
+    <row r="973" s="14" customFormat="1" ht="14.25" spans="1:37">
       <c r="A973" s="14">
         <v>850026</v>
       </c>
@@ -51679,7 +51853,7 @@
       </c>
       <c r="AK973" s="21"/>
     </row>
-    <row r="974" s="14" customFormat="1" ht="16.5" spans="1:37">
+    <row r="974" s="14" customFormat="1" ht="17.25" spans="1:37">
       <c r="A974" s="14">
         <v>850027</v>
       </c>
@@ -51688,7 +51862,7 @@
       </c>
       <c r="AK974" s="21"/>
     </row>
-    <row r="975" s="14" customFormat="1" ht="16.5" spans="1:37">
+    <row r="975" s="14" customFormat="1" ht="17.25" spans="1:37">
       <c r="A975" s="14">
         <v>850028</v>
       </c>
@@ -51697,7 +51871,7 @@
       </c>
       <c r="AK975" s="21"/>
     </row>
-    <row r="976" s="14" customFormat="1" ht="16.5" spans="1:37">
+    <row r="976" s="14" customFormat="1" ht="17.25" spans="1:37">
       <c r="A976" s="14">
         <v>850029</v>
       </c>
@@ -51706,7 +51880,7 @@
       </c>
       <c r="AK976" s="21"/>
     </row>
-    <row r="977" s="14" customFormat="1" ht="15" spans="1:37">
+    <row r="977" s="14" customFormat="1" ht="14.25" spans="1:37">
       <c r="A977" s="14">
         <v>850030</v>
       </c>
@@ -51715,7 +51889,7 @@
       </c>
       <c r="AK977" s="21"/>
     </row>
-    <row r="978" s="14" customFormat="1" ht="16.5" spans="1:37">
+    <row r="978" s="14" customFormat="1" ht="17.25" spans="1:37">
       <c r="A978" s="14">
         <v>850031</v>
       </c>
@@ -51724,7 +51898,7 @@
       </c>
       <c r="AK978" s="21"/>
     </row>
-    <row r="979" s="14" customFormat="1" ht="16.5" spans="1:37">
+    <row r="979" s="14" customFormat="1" ht="17.25" spans="1:37">
       <c r="A979" s="14">
         <v>850032</v>
       </c>
@@ -51733,7 +51907,7 @@
       </c>
       <c r="AK979" s="21"/>
     </row>
-    <row r="980" s="14" customFormat="1" ht="16.5" spans="1:37">
+    <row r="980" s="14" customFormat="1" ht="17.25" spans="1:37">
       <c r="A980" s="14">
         <v>850033</v>
       </c>
@@ -51742,7 +51916,7 @@
       </c>
       <c r="AK980" s="21"/>
     </row>
-    <row r="981" s="14" customFormat="1" ht="15" spans="1:37">
+    <row r="981" s="14" customFormat="1" ht="14.25" spans="1:37">
       <c r="A981" s="14">
         <v>850034</v>
       </c>
@@ -51751,7 +51925,7 @@
       </c>
       <c r="AK981" s="21"/>
     </row>
-    <row r="982" s="14" customFormat="1" ht="16.5" spans="1:37">
+    <row r="982" s="14" customFormat="1" ht="17.25" spans="1:37">
       <c r="A982" s="14">
         <v>850035</v>
       </c>
@@ -51760,7 +51934,7 @@
       </c>
       <c r="AK982" s="21"/>
     </row>
-    <row r="983" s="14" customFormat="1" ht="16.5" spans="1:37">
+    <row r="983" s="14" customFormat="1" ht="17.25" spans="1:37">
       <c r="A983" s="14">
         <v>850036</v>
       </c>
@@ -51769,7 +51943,7 @@
       </c>
       <c r="AK983" s="21"/>
     </row>
-    <row r="984" s="14" customFormat="1" ht="16.5" spans="1:37">
+    <row r="984" s="14" customFormat="1" ht="17.25" spans="1:37">
       <c r="A984" s="14">
         <v>850037</v>
       </c>
@@ -51778,7 +51952,7 @@
       </c>
       <c r="AK984" s="21"/>
     </row>
-    <row r="985" s="14" customFormat="1" ht="15" spans="1:37">
+    <row r="985" s="14" customFormat="1" ht="14.25" spans="1:37">
       <c r="A985" s="14">
         <v>850038</v>
       </c>
@@ -51787,7 +51961,7 @@
       </c>
       <c r="AK985" s="21"/>
     </row>
-    <row r="986" s="14" customFormat="1" ht="16.5" spans="1:37">
+    <row r="986" s="14" customFormat="1" ht="17.25" spans="1:37">
       <c r="A986" s="14">
         <v>850039</v>
       </c>
@@ -51796,7 +51970,7 @@
       </c>
       <c r="AK986" s="21"/>
     </row>
-    <row r="987" s="14" customFormat="1" ht="16.5" spans="1:37">
+    <row r="987" s="14" customFormat="1" ht="17.25" spans="1:37">
       <c r="A987" s="14">
         <v>850040</v>
       </c>
@@ -51805,7 +51979,7 @@
       </c>
       <c r="AK987" s="21"/>
     </row>
-    <row r="988" s="14" customFormat="1" ht="16.5" spans="1:37">
+    <row r="988" s="14" customFormat="1" ht="17.25" spans="1:37">
       <c r="A988" s="14">
         <v>850041</v>
       </c>
@@ -51814,7 +51988,7 @@
       </c>
       <c r="AK988" s="21"/>
     </row>
-    <row r="989" s="14" customFormat="1" ht="15" spans="1:37">
+    <row r="989" s="14" customFormat="1" ht="14.25" spans="1:37">
       <c r="A989" s="14">
         <v>850042</v>
       </c>
@@ -51823,7 +51997,7 @@
       </c>
       <c r="AK989" s="21"/>
     </row>
-    <row r="990" s="14" customFormat="1" ht="16.5" spans="1:37">
+    <row r="990" s="14" customFormat="1" ht="17.25" spans="1:37">
       <c r="A990" s="14">
         <v>850043</v>
       </c>
@@ -51832,7 +52006,7 @@
       </c>
       <c r="AK990" s="21"/>
     </row>
-    <row r="991" s="14" customFormat="1" ht="16.5" spans="1:37">
+    <row r="991" s="14" customFormat="1" ht="17.25" spans="1:37">
       <c r="A991" s="14">
         <v>850044</v>
       </c>
@@ -51915,21 +52089,18 @@
     </row>
     <row r="995" s="20" customFormat="1" spans="1:37">
       <c r="A995" s="20">
-        <v>850048</v>
+        <v>850049</v>
       </c>
       <c r="B995" s="14">
-        <v>850059</v>
+        <v>850060</v>
       </c>
       <c r="C995" s="14">
-        <v>850060</v>
+        <v>850061</v>
       </c>
       <c r="D995" s="14">
-        <v>850061</v>
+        <v>850062</v>
       </c>
       <c r="E995" s="14">
-        <v>850062</v>
-      </c>
-      <c r="F995" s="14">
         <v>850063</v>
       </c>
       <c r="AJ995" s="106" t="s">
@@ -51939,7 +52110,7 @@
     </row>
     <row r="996" s="20" customFormat="1" spans="1:37">
       <c r="A996" s="20">
-        <v>850049</v>
+        <v>850050</v>
       </c>
       <c r="B996" s="14">
         <v>850064</v>
@@ -51950,216 +52121,1177 @@
       <c r="D996" s="14">
         <v>850066</v>
       </c>
-      <c r="E996" s="14">
-        <v>850067</v>
-      </c>
       <c r="AJ996" s="106" t="s">
         <v>835</v>
       </c>
       <c r="AK996" s="106"/>
     </row>
-    <row r="997" s="20" customFormat="1" spans="1:37">
-      <c r="A997" s="20">
-        <v>850050</v>
-      </c>
-      <c r="B997" s="14">
-        <v>850068</v>
-      </c>
-      <c r="C997" s="14">
-        <v>850069</v>
-      </c>
-      <c r="D997" s="14">
-        <v>850070</v>
-      </c>
-      <c r="AJ997" s="106" t="s">
+    <row r="997" s="14" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A997" s="14">
+        <v>850051</v>
+      </c>
+      <c r="AJ997" s="107" t="s">
         <v>836</v>
       </c>
-      <c r="AK997" s="106"/>
-    </row>
-    <row r="998" s="14" customFormat="1" ht="15" spans="1:37">
+      <c r="AK997" s="21"/>
+    </row>
+    <row r="998" s="14" customFormat="1" ht="14.25" spans="1:37">
       <c r="A998" s="14">
-        <v>850051</v>
-      </c>
-      <c r="AJ998" s="107" t="s">
+        <v>850052</v>
+      </c>
+      <c r="AJ998" s="108" t="s">
         <v>837</v>
       </c>
       <c r="AK998" s="21"/>
     </row>
-    <row r="999" s="14" customFormat="1" ht="15" spans="1:37">
+    <row r="999" s="14" customFormat="1" ht="14.25" spans="1:37">
       <c r="A999" s="14">
-        <v>850052</v>
-      </c>
-      <c r="AJ999" s="107" t="s">
+        <v>850053</v>
+      </c>
+      <c r="AJ999" s="108" t="s">
         <v>838</v>
       </c>
       <c r="AK999" s="21"/>
     </row>
-    <row r="1000" s="14" customFormat="1" ht="15" spans="1:37">
+    <row r="1000" s="14" customFormat="1" ht="14.25" spans="1:37">
       <c r="A1000" s="14">
-        <v>850053</v>
-      </c>
-      <c r="AJ1000" s="107" t="s">
+        <v>850054</v>
+      </c>
+      <c r="AJ1000" s="108" t="s">
         <v>839</v>
       </c>
       <c r="AK1000" s="21"/>
     </row>
-    <row r="1001" s="14" customFormat="1" ht="15" spans="1:37">
+    <row r="1001" s="14" customFormat="1" ht="14.25" spans="1:37">
       <c r="A1001" s="14">
-        <v>850054</v>
-      </c>
-      <c r="AJ1001" s="107" t="s">
+        <v>850055</v>
+      </c>
+      <c r="AJ1001" s="109" t="s">
         <v>840</v>
       </c>
       <c r="AK1001" s="21"/>
     </row>
-    <row r="1002" s="14" customFormat="1" ht="15" spans="1:37">
+    <row r="1002" s="14" customFormat="1" ht="14.25" spans="1:37">
       <c r="A1002" s="14">
-        <v>850055</v>
-      </c>
-      <c r="AJ1002" s="107" t="s">
+        <v>850056</v>
+      </c>
+      <c r="AJ1002" s="108" t="s">
         <v>841</v>
       </c>
       <c r="AK1002" s="21"/>
     </row>
-    <row r="1003" s="14" customFormat="1" ht="15" spans="1:37">
+    <row r="1003" s="14" customFormat="1" ht="17.25" spans="1:37">
       <c r="A1003" s="14">
-        <v>850056</v>
-      </c>
-      <c r="AJ1003" s="107" t="s">
+        <v>850057</v>
+      </c>
+      <c r="AJ1003" s="110" t="s">
+        <v>837</v>
+      </c>
+      <c r="AK1003" s="21"/>
+    </row>
+    <row r="1004" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1004" s="14">
+        <v>850058</v>
+      </c>
+      <c r="AJ1004" s="111" t="s">
+        <v>838</v>
+      </c>
+      <c r="AK1004" s="21"/>
+    </row>
+    <row r="1005" s="14" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A1005" s="14">
+        <v>850059</v>
+      </c>
+      <c r="AJ1005" s="110" t="s">
         <v>842</v>
       </c>
-      <c r="AK1003" s="21"/>
-    </row>
-    <row r="1004" s="14" customFormat="1" ht="16.5" spans="1:37">
-      <c r="A1004" s="14">
-        <v>850057</v>
-      </c>
-      <c r="AJ1004" s="104" t="s">
-        <v>838</v>
-      </c>
-      <c r="AK1004" s="21"/>
-    </row>
-    <row r="1005" s="14" customFormat="1" ht="15" spans="1:37">
-      <c r="A1005" s="14">
-        <v>850058</v>
-      </c>
-      <c r="AJ1005" s="105" t="s">
+      <c r="AK1005" s="21"/>
+    </row>
+    <row r="1006" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1006" s="14">
+        <v>850060</v>
+      </c>
+      <c r="AJ1006" s="109" t="s">
         <v>843</v>
       </c>
-      <c r="AK1005" s="21"/>
-    </row>
-    <row r="1006" s="14" customFormat="1" ht="16.5" spans="1:37">
-      <c r="A1006" s="14">
-        <v>850059</v>
-      </c>
-      <c r="AJ1006" s="104" t="s">
+      <c r="AK1006" s="21"/>
+    </row>
+    <row r="1007" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1007" s="14">
+        <v>850061</v>
+      </c>
+      <c r="AJ1007" s="109" t="s">
         <v>844</v>
       </c>
-      <c r="AK1006" s="21"/>
-    </row>
-    <row r="1007" s="14" customFormat="1" ht="16.5" spans="1:37">
-      <c r="A1007" s="14">
-        <v>850060</v>
-      </c>
-      <c r="AJ1007" s="104" t="s">
+      <c r="AK1007" s="21"/>
+    </row>
+    <row r="1008" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1008" s="14">
+        <v>850062</v>
+      </c>
+      <c r="AJ1008" s="112" t="s">
         <v>845</v>
       </c>
-      <c r="AK1007" s="21"/>
-    </row>
-    <row r="1008" s="14" customFormat="1" ht="15" spans="1:37">
-      <c r="A1008" s="14">
-        <v>850061</v>
-      </c>
-      <c r="AJ1008" s="105" t="s">
-        <v>837</v>
-      </c>
       <c r="AK1008" s="21"/>
     </row>
-    <row r="1009" s="14" customFormat="1" ht="16.5" spans="1:37">
+    <row r="1009" s="14" customFormat="1" ht="14.25" spans="1:37">
       <c r="A1009" s="14">
-        <v>850062</v>
-      </c>
-      <c r="AJ1009" s="104" t="s">
-        <v>845</v>
+        <v>850063</v>
+      </c>
+      <c r="AJ1009" s="109" t="s">
+        <v>846</v>
       </c>
       <c r="AK1009" s="21"/>
     </row>
-    <row r="1010" s="14" customFormat="1" ht="16.5" spans="1:37">
+    <row r="1010" s="14" customFormat="1" ht="14.25" spans="1:37">
       <c r="A1010" s="14">
-        <v>850063</v>
-      </c>
-      <c r="AJ1010" s="104" t="s">
-        <v>846</v>
+        <v>850064</v>
+      </c>
+      <c r="AJ1010" s="109" t="s">
+        <v>847</v>
       </c>
       <c r="AK1010" s="21"/>
     </row>
-    <row r="1011" s="14" customFormat="1" ht="15" spans="1:37">
+    <row r="1011" s="14" customFormat="1" ht="14.25" spans="1:37">
       <c r="A1011" s="14">
-        <v>850064</v>
-      </c>
-      <c r="AJ1011" s="108" t="s">
-        <v>847</v>
+        <v>850065</v>
+      </c>
+      <c r="AJ1011" s="109" t="s">
+        <v>848</v>
       </c>
       <c r="AK1011" s="21"/>
     </row>
-    <row r="1012" s="14" customFormat="1" ht="15" spans="1:37">
+    <row r="1012" s="14" customFormat="1" ht="14.25" spans="1:37">
       <c r="A1012" s="14">
-        <v>850065</v>
-      </c>
-      <c r="AJ1012" s="108" t="s">
-        <v>848</v>
+        <v>850066</v>
+      </c>
+      <c r="AJ1012" s="109" t="s">
+        <v>849</v>
       </c>
       <c r="AK1012" s="21"/>
     </row>
-    <row r="1013" s="14" customFormat="1" ht="15" spans="1:37">
-      <c r="A1013" s="14">
-        <v>850066</v>
-      </c>
-      <c r="AJ1013" s="109" t="s">
-        <v>849</v>
-      </c>
-      <c r="AK1013" s="21"/>
-    </row>
-    <row r="1014" s="14" customFormat="1" ht="15" spans="1:37">
-      <c r="A1014" s="14">
-        <v>850067</v>
-      </c>
-      <c r="AJ1014" s="108" t="s">
+    <row r="1013" s="9" customFormat="1" spans="1:37">
+      <c r="A1013" s="9">
+        <v>860045</v>
+      </c>
+      <c r="B1013" s="9">
+        <v>860046</v>
+      </c>
+      <c r="C1013" s="9">
+        <v>860047</v>
+      </c>
+      <c r="D1013" s="9">
+        <v>860048</v>
+      </c>
+      <c r="E1013" s="9">
+        <v>860049</v>
+      </c>
+      <c r="F1013" s="9">
+        <v>860050</v>
+      </c>
+      <c r="AJ1013" s="76" t="s">
         <v>850</v>
       </c>
-      <c r="AK1014" s="21"/>
-    </row>
-    <row r="1015" s="14" customFormat="1" ht="15" spans="1:37">
-      <c r="A1015" s="14">
-        <v>850068</v>
-      </c>
-      <c r="AJ1015" s="108" t="s">
+      <c r="AK1013" s="76"/>
+    </row>
+    <row r="1014" s="20" customFormat="1" spans="1:37">
+      <c r="A1014" s="20">
+        <v>860046</v>
+      </c>
+      <c r="B1014" s="14">
+        <v>860051</v>
+      </c>
+      <c r="C1014" s="14">
+        <v>860052</v>
+      </c>
+      <c r="D1014" s="14">
+        <v>860053</v>
+      </c>
+      <c r="E1014" s="14">
+        <v>860054</v>
+      </c>
+      <c r="F1014" s="14">
+        <v>860055</v>
+      </c>
+      <c r="AJ1014" s="106" t="s">
+        <v>832</v>
+      </c>
+      <c r="AK1014" s="106"/>
+    </row>
+    <row r="1015" s="20" customFormat="1" spans="1:37">
+      <c r="A1015" s="20">
+        <v>860047</v>
+      </c>
+      <c r="B1015" s="14">
+        <v>860055</v>
+      </c>
+      <c r="C1015" s="14">
+        <v>860056</v>
+      </c>
+      <c r="D1015" s="14">
+        <v>860057</v>
+      </c>
+      <c r="E1015" s="14">
+        <v>860058</v>
+      </c>
+      <c r="F1015" s="14">
+        <v>860059</v>
+      </c>
+      <c r="AJ1015" s="106" t="s">
+        <v>833</v>
+      </c>
+      <c r="AK1015" s="106"/>
+    </row>
+    <row r="1016" s="20" customFormat="1" spans="1:37">
+      <c r="A1016" s="20">
+        <v>860049</v>
+      </c>
+      <c r="B1016" s="14">
+        <v>860060</v>
+      </c>
+      <c r="C1016" s="14">
+        <v>860061</v>
+      </c>
+      <c r="D1016" s="14">
+        <v>860062</v>
+      </c>
+      <c r="E1016" s="14">
+        <v>860063</v>
+      </c>
+      <c r="AJ1016" s="106" t="s">
+        <v>834</v>
+      </c>
+      <c r="AK1016" s="106"/>
+    </row>
+    <row r="1017" s="20" customFormat="1" spans="1:37">
+      <c r="A1017" s="20">
+        <v>860050</v>
+      </c>
+      <c r="B1017" s="14">
+        <v>860064</v>
+      </c>
+      <c r="C1017" s="14">
+        <v>860065</v>
+      </c>
+      <c r="D1017" s="14">
+        <v>860066</v>
+      </c>
+      <c r="AJ1017" s="106" t="s">
+        <v>835</v>
+      </c>
+      <c r="AK1017" s="106"/>
+    </row>
+    <row r="1018" s="14" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A1018" s="14">
+        <v>860051</v>
+      </c>
+      <c r="AJ1018" s="107" t="s">
         <v>851</v>
       </c>
-      <c r="AK1015" s="21"/>
-    </row>
-    <row r="1016" s="14" customFormat="1" ht="15" spans="1:37">
-      <c r="A1016" s="14">
-        <v>850069</v>
-      </c>
-      <c r="AJ1016" s="108" t="s">
+      <c r="AK1018" s="21"/>
+    </row>
+    <row r="1019" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1019" s="14">
+        <v>860052</v>
+      </c>
+      <c r="AJ1019" s="108" t="s">
         <v>852</v>
       </c>
-      <c r="AK1016" s="21"/>
-    </row>
-    <row r="1017" s="14" customFormat="1" ht="15" spans="1:37">
-      <c r="A1017" s="14">
-        <v>850070</v>
-      </c>
-      <c r="AJ1017" s="108" t="s">
+      <c r="AK1019" s="21"/>
+    </row>
+    <row r="1020" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1020" s="14">
+        <v>860053</v>
+      </c>
+      <c r="AJ1020" s="108" t="s">
         <v>853</v>
       </c>
-      <c r="AK1017" s="21"/>
+      <c r="AK1020" s="21"/>
+    </row>
+    <row r="1021" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1021" s="14">
+        <v>860054</v>
+      </c>
+      <c r="AJ1021" s="108" t="s">
+        <v>854</v>
+      </c>
+      <c r="AK1021" s="21"/>
+    </row>
+    <row r="1022" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1022" s="14">
+        <v>860055</v>
+      </c>
+      <c r="AJ1022" s="109" t="s">
+        <v>855</v>
+      </c>
+      <c r="AK1022" s="21"/>
+    </row>
+    <row r="1023" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1023" s="14">
+        <v>860056</v>
+      </c>
+      <c r="AJ1023" s="108" t="s">
+        <v>856</v>
+      </c>
+      <c r="AK1023" s="21"/>
+    </row>
+    <row r="1024" s="14" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A1024" s="14">
+        <v>860057</v>
+      </c>
+      <c r="AJ1024" s="110" t="s">
+        <v>852</v>
+      </c>
+      <c r="AK1024" s="21"/>
+    </row>
+    <row r="1025" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1025" s="14">
+        <v>860058</v>
+      </c>
+      <c r="AJ1025" s="111" t="s">
+        <v>853</v>
+      </c>
+      <c r="AK1025" s="21"/>
+    </row>
+    <row r="1026" s="14" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A1026" s="14">
+        <v>860059</v>
+      </c>
+      <c r="AJ1026" s="110" t="s">
+        <v>857</v>
+      </c>
+      <c r="AK1026" s="21"/>
+    </row>
+    <row r="1027" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1027" s="14">
+        <v>860060</v>
+      </c>
+      <c r="AJ1027" s="109" t="s">
+        <v>858</v>
+      </c>
+      <c r="AK1027" s="21"/>
+    </row>
+    <row r="1028" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1028" s="14">
+        <v>860061</v>
+      </c>
+      <c r="AJ1028" s="109" t="s">
+        <v>859</v>
+      </c>
+      <c r="AK1028" s="21"/>
+    </row>
+    <row r="1029" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1029" s="14">
+        <v>860062</v>
+      </c>
+      <c r="AJ1029" s="112" t="s">
+        <v>860</v>
+      </c>
+      <c r="AK1029" s="21"/>
+    </row>
+    <row r="1030" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1030" s="14">
+        <v>860063</v>
+      </c>
+      <c r="AJ1030" s="109" t="s">
+        <v>861</v>
+      </c>
+      <c r="AK1030" s="21"/>
+    </row>
+    <row r="1031" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1031" s="14">
+        <v>860064</v>
+      </c>
+      <c r="AJ1031" s="109" t="s">
+        <v>862</v>
+      </c>
+      <c r="AK1031" s="21"/>
+    </row>
+    <row r="1032" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1032" s="14">
+        <v>860065</v>
+      </c>
+      <c r="AJ1032" s="109" t="s">
+        <v>863</v>
+      </c>
+      <c r="AK1032" s="21"/>
+    </row>
+    <row r="1033" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1033" s="14">
+        <v>860066</v>
+      </c>
+      <c r="AJ1033" s="109" t="s">
+        <v>864</v>
+      </c>
+      <c r="AK1033" s="21"/>
+    </row>
+    <row r="1034" s="9" customFormat="1" spans="1:37">
+      <c r="A1034" s="9">
+        <v>870045</v>
+      </c>
+      <c r="B1034" s="9">
+        <v>870046</v>
+      </c>
+      <c r="C1034" s="9">
+        <v>870047</v>
+      </c>
+      <c r="D1034" s="9">
+        <v>870048</v>
+      </c>
+      <c r="E1034" s="9">
+        <v>870049</v>
+      </c>
+      <c r="F1034" s="9">
+        <v>870050</v>
+      </c>
+      <c r="AJ1034" s="76" t="s">
+        <v>865</v>
+      </c>
+      <c r="AK1034" s="76"/>
+    </row>
+    <row r="1035" s="20" customFormat="1" spans="1:37">
+      <c r="A1035" s="20">
+        <v>870046</v>
+      </c>
+      <c r="B1035" s="14">
+        <v>870051</v>
+      </c>
+      <c r="C1035" s="14">
+        <v>870052</v>
+      </c>
+      <c r="D1035" s="14">
+        <v>870053</v>
+      </c>
+      <c r="E1035" s="14">
+        <v>870054</v>
+      </c>
+      <c r="F1035" s="14">
+        <v>870055</v>
+      </c>
+      <c r="AJ1035" s="106" t="s">
+        <v>832</v>
+      </c>
+      <c r="AK1035" s="106"/>
+    </row>
+    <row r="1036" s="20" customFormat="1" spans="1:37">
+      <c r="A1036" s="20">
+        <v>870047</v>
+      </c>
+      <c r="B1036" s="14">
+        <v>870055</v>
+      </c>
+      <c r="C1036" s="14">
+        <v>870056</v>
+      </c>
+      <c r="D1036" s="14">
+        <v>870057</v>
+      </c>
+      <c r="E1036" s="14">
+        <v>870058</v>
+      </c>
+      <c r="F1036" s="14">
+        <v>870059</v>
+      </c>
+      <c r="AJ1036" s="106" t="s">
+        <v>833</v>
+      </c>
+      <c r="AK1036" s="106"/>
+    </row>
+    <row r="1037" s="20" customFormat="1" spans="1:37">
+      <c r="A1037" s="20">
+        <v>870049</v>
+      </c>
+      <c r="B1037" s="14">
+        <v>870060</v>
+      </c>
+      <c r="C1037" s="14">
+        <v>870061</v>
+      </c>
+      <c r="D1037" s="14">
+        <v>870062</v>
+      </c>
+      <c r="E1037" s="14">
+        <v>870063</v>
+      </c>
+      <c r="AJ1037" s="106" t="s">
+        <v>834</v>
+      </c>
+      <c r="AK1037" s="106"/>
+    </row>
+    <row r="1038" s="20" customFormat="1" spans="1:37">
+      <c r="A1038" s="20">
+        <v>870050</v>
+      </c>
+      <c r="B1038" s="14">
+        <v>870064</v>
+      </c>
+      <c r="C1038" s="14">
+        <v>870065</v>
+      </c>
+      <c r="D1038" s="14">
+        <v>870066</v>
+      </c>
+      <c r="AJ1038" s="106" t="s">
+        <v>835</v>
+      </c>
+      <c r="AK1038" s="106"/>
+    </row>
+    <row r="1039" s="14" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A1039" s="14">
+        <v>870051</v>
+      </c>
+      <c r="AJ1039" s="107" t="s">
+        <v>866</v>
+      </c>
+      <c r="AK1039" s="21"/>
+    </row>
+    <row r="1040" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1040" s="14">
+        <v>870052</v>
+      </c>
+      <c r="AJ1040" s="108" t="s">
+        <v>867</v>
+      </c>
+      <c r="AK1040" s="21"/>
+    </row>
+    <row r="1041" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1041" s="14">
+        <v>870053</v>
+      </c>
+      <c r="AJ1041" s="108" t="s">
+        <v>868</v>
+      </c>
+      <c r="AK1041" s="21"/>
+    </row>
+    <row r="1042" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1042" s="14">
+        <v>870054</v>
+      </c>
+      <c r="AJ1042" s="108" t="s">
+        <v>869</v>
+      </c>
+      <c r="AK1042" s="21"/>
+    </row>
+    <row r="1043" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1043" s="14">
+        <v>870055</v>
+      </c>
+      <c r="AJ1043" s="109" t="s">
+        <v>870</v>
+      </c>
+      <c r="AK1043" s="21"/>
+    </row>
+    <row r="1044" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1044" s="14">
+        <v>870056</v>
+      </c>
+      <c r="AJ1044" s="108" t="s">
+        <v>871</v>
+      </c>
+      <c r="AK1044" s="21"/>
+    </row>
+    <row r="1045" s="14" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A1045" s="14">
+        <v>870057</v>
+      </c>
+      <c r="AJ1045" s="110" t="s">
+        <v>867</v>
+      </c>
+      <c r="AK1045" s="21"/>
+    </row>
+    <row r="1046" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1046" s="14">
+        <v>870058</v>
+      </c>
+      <c r="AJ1046" s="111" t="s">
+        <v>868</v>
+      </c>
+      <c r="AK1046" s="21"/>
+    </row>
+    <row r="1047" s="14" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A1047" s="14">
+        <v>870059</v>
+      </c>
+      <c r="AJ1047" s="110" t="s">
+        <v>872</v>
+      </c>
+      <c r="AK1047" s="21"/>
+    </row>
+    <row r="1048" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1048" s="14">
+        <v>870060</v>
+      </c>
+      <c r="AJ1048" s="109" t="s">
+        <v>873</v>
+      </c>
+      <c r="AK1048" s="21"/>
+    </row>
+    <row r="1049" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1049" s="14">
+        <v>870061</v>
+      </c>
+      <c r="AJ1049" s="109" t="s">
+        <v>874</v>
+      </c>
+      <c r="AK1049" s="21"/>
+    </row>
+    <row r="1050" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1050" s="14">
+        <v>870062</v>
+      </c>
+      <c r="AJ1050" s="112" t="s">
+        <v>875</v>
+      </c>
+      <c r="AK1050" s="21"/>
+    </row>
+    <row r="1051" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1051" s="14">
+        <v>870063</v>
+      </c>
+      <c r="AJ1051" s="109" t="s">
+        <v>876</v>
+      </c>
+      <c r="AK1051" s="21"/>
+    </row>
+    <row r="1052" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1052" s="14">
+        <v>870064</v>
+      </c>
+      <c r="AJ1052" s="109" t="s">
+        <v>877</v>
+      </c>
+      <c r="AK1052" s="21"/>
+    </row>
+    <row r="1053" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1053" s="14">
+        <v>870065</v>
+      </c>
+      <c r="AJ1053" s="109" t="s">
+        <v>878</v>
+      </c>
+      <c r="AK1053" s="21"/>
+    </row>
+    <row r="1054" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1054" s="14">
+        <v>870066</v>
+      </c>
+      <c r="AJ1054" s="109" t="s">
+        <v>879</v>
+      </c>
+      <c r="AK1054" s="21"/>
+    </row>
+    <row r="1055" s="9" customFormat="1" spans="1:37">
+      <c r="A1055" s="9">
+        <v>880045</v>
+      </c>
+      <c r="B1055" s="9">
+        <v>880046</v>
+      </c>
+      <c r="C1055" s="9">
+        <v>880047</v>
+      </c>
+      <c r="D1055" s="9">
+        <v>880048</v>
+      </c>
+      <c r="E1055" s="9">
+        <v>880049</v>
+      </c>
+      <c r="F1055" s="9">
+        <v>880050</v>
+      </c>
+      <c r="AJ1055" s="76" t="s">
+        <v>880</v>
+      </c>
+      <c r="AK1055" s="76"/>
+    </row>
+    <row r="1056" s="20" customFormat="1" spans="1:37">
+      <c r="A1056" s="20">
+        <v>880046</v>
+      </c>
+      <c r="B1056" s="14">
+        <v>880051</v>
+      </c>
+      <c r="C1056" s="14">
+        <v>880052</v>
+      </c>
+      <c r="D1056" s="14">
+        <v>880053</v>
+      </c>
+      <c r="E1056" s="14">
+        <v>880054</v>
+      </c>
+      <c r="F1056" s="14">
+        <v>880055</v>
+      </c>
+      <c r="AJ1056" s="106" t="s">
+        <v>832</v>
+      </c>
+      <c r="AK1056" s="106"/>
+    </row>
+    <row r="1057" s="20" customFormat="1" spans="1:37">
+      <c r="A1057" s="20">
+        <v>880047</v>
+      </c>
+      <c r="B1057" s="14">
+        <v>880055</v>
+      </c>
+      <c r="C1057" s="14">
+        <v>880056</v>
+      </c>
+      <c r="D1057" s="14">
+        <v>880057</v>
+      </c>
+      <c r="E1057" s="14">
+        <v>880058</v>
+      </c>
+      <c r="F1057" s="14">
+        <v>880059</v>
+      </c>
+      <c r="AJ1057" s="106" t="s">
+        <v>833</v>
+      </c>
+      <c r="AK1057" s="106"/>
+    </row>
+    <row r="1058" s="20" customFormat="1" spans="1:37">
+      <c r="A1058" s="20">
+        <v>880049</v>
+      </c>
+      <c r="B1058" s="14">
+        <v>880060</v>
+      </c>
+      <c r="C1058" s="14">
+        <v>880061</v>
+      </c>
+      <c r="D1058" s="14">
+        <v>880062</v>
+      </c>
+      <c r="E1058" s="14">
+        <v>880063</v>
+      </c>
+      <c r="AJ1058" s="106" t="s">
+        <v>834</v>
+      </c>
+      <c r="AK1058" s="106"/>
+    </row>
+    <row r="1059" s="20" customFormat="1" spans="1:37">
+      <c r="A1059" s="20">
+        <v>880050</v>
+      </c>
+      <c r="B1059" s="14">
+        <v>880064</v>
+      </c>
+      <c r="C1059" s="14">
+        <v>880065</v>
+      </c>
+      <c r="D1059" s="14">
+        <v>880066</v>
+      </c>
+      <c r="AJ1059" s="106" t="s">
+        <v>835</v>
+      </c>
+      <c r="AK1059" s="106"/>
+    </row>
+    <row r="1060" s="14" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A1060" s="14">
+        <v>880051</v>
+      </c>
+      <c r="AJ1060" s="107" t="s">
+        <v>881</v>
+      </c>
+      <c r="AK1060" s="21"/>
+    </row>
+    <row r="1061" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1061" s="14">
+        <v>880052</v>
+      </c>
+      <c r="AJ1061" s="108" t="s">
+        <v>882</v>
+      </c>
+      <c r="AK1061" s="21"/>
+    </row>
+    <row r="1062" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1062" s="14">
+        <v>880053</v>
+      </c>
+      <c r="AJ1062" s="108" t="s">
+        <v>883</v>
+      </c>
+      <c r="AK1062" s="21"/>
+    </row>
+    <row r="1063" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1063" s="14">
+        <v>880054</v>
+      </c>
+      <c r="AJ1063" s="108" t="s">
+        <v>884</v>
+      </c>
+      <c r="AK1063" s="21"/>
+    </row>
+    <row r="1064" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1064" s="14">
+        <v>880055</v>
+      </c>
+      <c r="AJ1064" s="109" t="s">
+        <v>885</v>
+      </c>
+      <c r="AK1064" s="21"/>
+    </row>
+    <row r="1065" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1065" s="14">
+        <v>880056</v>
+      </c>
+      <c r="AJ1065" s="108" t="s">
+        <v>886</v>
+      </c>
+      <c r="AK1065" s="21"/>
+    </row>
+    <row r="1066" s="14" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A1066" s="14">
+        <v>880057</v>
+      </c>
+      <c r="AJ1066" s="110" t="s">
+        <v>882</v>
+      </c>
+      <c r="AK1066" s="21"/>
+    </row>
+    <row r="1067" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1067" s="14">
+        <v>880058</v>
+      </c>
+      <c r="AJ1067" s="111" t="s">
+        <v>883</v>
+      </c>
+      <c r="AK1067" s="21"/>
+    </row>
+    <row r="1068" s="14" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A1068" s="14">
+        <v>880059</v>
+      </c>
+      <c r="AJ1068" s="110" t="s">
+        <v>887</v>
+      </c>
+      <c r="AK1068" s="21"/>
+    </row>
+    <row r="1069" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1069" s="14">
+        <v>880060</v>
+      </c>
+      <c r="AJ1069" s="109" t="s">
+        <v>888</v>
+      </c>
+      <c r="AK1069" s="21"/>
+    </row>
+    <row r="1070" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1070" s="14">
+        <v>880061</v>
+      </c>
+      <c r="AJ1070" s="109" t="s">
+        <v>889</v>
+      </c>
+      <c r="AK1070" s="21"/>
+    </row>
+    <row r="1071" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1071" s="14">
+        <v>880062</v>
+      </c>
+      <c r="AJ1071" s="112" t="s">
+        <v>890</v>
+      </c>
+      <c r="AK1071" s="21"/>
+    </row>
+    <row r="1072" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1072" s="14">
+        <v>880063</v>
+      </c>
+      <c r="AJ1072" s="109" t="s">
+        <v>891</v>
+      </c>
+      <c r="AK1072" s="21"/>
+    </row>
+    <row r="1073" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1073" s="14">
+        <v>880064</v>
+      </c>
+      <c r="AJ1073" s="109" t="s">
+        <v>892</v>
+      </c>
+      <c r="AK1073" s="21"/>
+    </row>
+    <row r="1074" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1074" s="14">
+        <v>880065</v>
+      </c>
+      <c r="AJ1074" s="109" t="s">
+        <v>893</v>
+      </c>
+      <c r="AK1074" s="21"/>
+    </row>
+    <row r="1075" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1075" s="14">
+        <v>880066</v>
+      </c>
+      <c r="AJ1075" s="109" t="s">
+        <v>894</v>
+      </c>
+      <c r="AK1075" s="21"/>
+    </row>
+    <row r="1076" s="9" customFormat="1" spans="1:37">
+      <c r="A1076" s="9">
+        <v>890045</v>
+      </c>
+      <c r="B1076" s="9">
+        <v>890046</v>
+      </c>
+      <c r="C1076" s="9">
+        <v>890047</v>
+      </c>
+      <c r="D1076" s="9">
+        <v>890048</v>
+      </c>
+      <c r="E1076" s="9">
+        <v>890049</v>
+      </c>
+      <c r="F1076" s="9">
+        <v>890050</v>
+      </c>
+      <c r="AJ1076" s="76" t="s">
+        <v>895</v>
+      </c>
+      <c r="AK1076" s="76"/>
+    </row>
+    <row r="1077" s="20" customFormat="1" spans="1:37">
+      <c r="A1077" s="20">
+        <v>890046</v>
+      </c>
+      <c r="B1077" s="14">
+        <v>890051</v>
+      </c>
+      <c r="C1077" s="14">
+        <v>890052</v>
+      </c>
+      <c r="D1077" s="14">
+        <v>890053</v>
+      </c>
+      <c r="E1077" s="14">
+        <v>890054</v>
+      </c>
+      <c r="F1077" s="14">
+        <v>890055</v>
+      </c>
+      <c r="AJ1077" s="106" t="s">
+        <v>832</v>
+      </c>
+      <c r="AK1077" s="106"/>
+    </row>
+    <row r="1078" s="20" customFormat="1" spans="1:37">
+      <c r="A1078" s="20">
+        <v>890047</v>
+      </c>
+      <c r="B1078" s="14">
+        <v>890055</v>
+      </c>
+      <c r="C1078" s="14">
+        <v>890056</v>
+      </c>
+      <c r="D1078" s="14">
+        <v>890057</v>
+      </c>
+      <c r="E1078" s="14">
+        <v>890058</v>
+      </c>
+      <c r="F1078" s="14">
+        <v>890059</v>
+      </c>
+      <c r="AJ1078" s="106" t="s">
+        <v>833</v>
+      </c>
+      <c r="AK1078" s="106"/>
+    </row>
+    <row r="1079" s="20" customFormat="1" spans="1:37">
+      <c r="A1079" s="20">
+        <v>890049</v>
+      </c>
+      <c r="B1079" s="14">
+        <v>890060</v>
+      </c>
+      <c r="C1079" s="14">
+        <v>890061</v>
+      </c>
+      <c r="D1079" s="14">
+        <v>890062</v>
+      </c>
+      <c r="E1079" s="14">
+        <v>890063</v>
+      </c>
+      <c r="AJ1079" s="106" t="s">
+        <v>834</v>
+      </c>
+      <c r="AK1079" s="106"/>
+    </row>
+    <row r="1080" s="20" customFormat="1" spans="1:37">
+      <c r="A1080" s="20">
+        <v>890050</v>
+      </c>
+      <c r="B1080" s="14">
+        <v>890064</v>
+      </c>
+      <c r="C1080" s="14">
+        <v>890065</v>
+      </c>
+      <c r="D1080" s="14">
+        <v>890066</v>
+      </c>
+      <c r="AJ1080" s="106" t="s">
+        <v>835</v>
+      </c>
+      <c r="AK1080" s="106"/>
+    </row>
+    <row r="1081" s="14" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A1081" s="14">
+        <v>890051</v>
+      </c>
+      <c r="AJ1081" s="107" t="s">
+        <v>896</v>
+      </c>
+      <c r="AK1081" s="21"/>
+    </row>
+    <row r="1082" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1082" s="14">
+        <v>890052</v>
+      </c>
+      <c r="AJ1082" s="108" t="s">
+        <v>897</v>
+      </c>
+      <c r="AK1082" s="21"/>
+    </row>
+    <row r="1083" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1083" s="14">
+        <v>890053</v>
+      </c>
+      <c r="AJ1083" s="108" t="s">
+        <v>898</v>
+      </c>
+      <c r="AK1083" s="21"/>
+    </row>
+    <row r="1084" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1084" s="14">
+        <v>890054</v>
+      </c>
+      <c r="AJ1084" s="108" t="s">
+        <v>899</v>
+      </c>
+      <c r="AK1084" s="21"/>
+    </row>
+    <row r="1085" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1085" s="14">
+        <v>890055</v>
+      </c>
+      <c r="AJ1085" s="109" t="s">
+        <v>900</v>
+      </c>
+      <c r="AK1085" s="21"/>
+    </row>
+    <row r="1086" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1086" s="14">
+        <v>890056</v>
+      </c>
+      <c r="AJ1086" s="108" t="s">
+        <v>901</v>
+      </c>
+      <c r="AK1086" s="21"/>
+    </row>
+    <row r="1087" s="14" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A1087" s="14">
+        <v>890057</v>
+      </c>
+      <c r="AJ1087" s="110" t="s">
+        <v>897</v>
+      </c>
+      <c r="AK1087" s="21"/>
+    </row>
+    <row r="1088" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1088" s="14">
+        <v>890058</v>
+      </c>
+      <c r="AJ1088" s="111" t="s">
+        <v>898</v>
+      </c>
+      <c r="AK1088" s="21"/>
+    </row>
+    <row r="1089" s="14" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A1089" s="14">
+        <v>890059</v>
+      </c>
+      <c r="AJ1089" s="110" t="s">
+        <v>902</v>
+      </c>
+      <c r="AK1089" s="21"/>
+    </row>
+    <row r="1090" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1090" s="14">
+        <v>890060</v>
+      </c>
+      <c r="AJ1090" s="109" t="s">
+        <v>903</v>
+      </c>
+      <c r="AK1090" s="21"/>
+    </row>
+    <row r="1091" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1091" s="14">
+        <v>890061</v>
+      </c>
+      <c r="AJ1091" s="109" t="s">
+        <v>904</v>
+      </c>
+      <c r="AK1091" s="21"/>
+    </row>
+    <row r="1092" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1092" s="14">
+        <v>890062</v>
+      </c>
+      <c r="AJ1092" s="112" t="s">
+        <v>905</v>
+      </c>
+      <c r="AK1092" s="21"/>
+    </row>
+    <row r="1093" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1093" s="14">
+        <v>890063</v>
+      </c>
+      <c r="AJ1093" s="109" t="s">
+        <v>906</v>
+      </c>
+      <c r="AK1093" s="21"/>
+    </row>
+    <row r="1094" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1094" s="14">
+        <v>890064</v>
+      </c>
+      <c r="AJ1094" s="109" t="s">
+        <v>907</v>
+      </c>
+      <c r="AK1094" s="21"/>
+    </row>
+    <row r="1095" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1095" s="14">
+        <v>890065</v>
+      </c>
+      <c r="AJ1095" s="109" t="s">
+        <v>908</v>
+      </c>
+      <c r="AK1095" s="21"/>
+    </row>
+    <row r="1096" s="14" customFormat="1" ht="14.25" spans="1:37">
+      <c r="A1096" s="14">
+        <v>890066</v>
+      </c>
+      <c r="AJ1096" s="109" t="s">
+        <v>909</v>
+      </c>
+      <c r="AK1096" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="AJ1:AJ1017">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="AJ1:AJ1096"/>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="6大门派师傅" sqref="T129 T196 T655 T135:T140 T292:T293 T850:T852 T853:T855 T856:T858 U130:V132 U121:V126"/>
   </dataValidations>
@@ -52172,7 +53304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -52180,7 +53312,7 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -52189,7 +53321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -52197,7 +53329,7 @@
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Table/Table_xls/npc服务总表.xlsx
+++ b/Table/Table_xls/npc服务总表.xlsx
@@ -2880,8 +2880,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3033,40 +3033,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3078,7 +3049,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3093,7 +3132,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3107,76 +3177,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3283,13 +3283,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3301,49 +3385,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3361,97 +3445,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3482,20 +3482,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3530,39 +3534,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3577,159 +3548,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4142,7 +4142,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="156337000"/>
+          <a:off x="25239980" y="156337000"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4289,7 +4289,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="156337000"/>
+          <a:off x="25239980" y="156337000"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4436,7 +4436,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="156337000"/>
+          <a:off x="25239980" y="156337000"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4583,7 +4583,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="156337000"/>
+          <a:off x="25239980" y="156337000"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4730,7 +4730,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="157194250"/>
+          <a:off x="25239980" y="157194250"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4877,7 +4877,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="157194250"/>
+          <a:off x="25239980" y="157194250"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5024,7 +5024,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="157194250"/>
+          <a:off x="25239980" y="157194250"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5171,7 +5171,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="157194250"/>
+          <a:off x="25239980" y="157194250"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5318,7 +5318,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="157022800"/>
+          <a:off x="25239980" y="157022800"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5465,7 +5465,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="157022800"/>
+          <a:off x="25239980" y="157022800"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5612,7 +5612,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="157022800"/>
+          <a:off x="25239980" y="157022800"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5759,7 +5759,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="157022800"/>
+          <a:off x="25239980" y="157022800"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5906,7 +5906,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="157708600"/>
+          <a:off x="25239980" y="157708600"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6053,7 +6053,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="157708600"/>
+          <a:off x="25239980" y="157708600"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6200,7 +6200,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="157708600"/>
+          <a:off x="25239980" y="157708600"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6347,7 +6347,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="157708600"/>
+          <a:off x="25239980" y="157708600"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6494,7 +6494,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="157537150"/>
+          <a:off x="25239980" y="157537150"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6641,7 +6641,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="157537150"/>
+          <a:off x="25239980" y="157537150"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6788,7 +6788,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="157537150"/>
+          <a:off x="25239980" y="157537150"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6935,7 +6935,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="157537150"/>
+          <a:off x="25239980" y="157537150"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7082,7 +7082,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="158222950"/>
+          <a:off x="25239980" y="158222950"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7229,7 +7229,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="158222950"/>
+          <a:off x="25239980" y="158222950"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7376,7 +7376,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="158222950"/>
+          <a:off x="25239980" y="158222950"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7523,7 +7523,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="158222950"/>
+          <a:off x="25239980" y="158222950"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7670,7 +7670,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="158051500"/>
+          <a:off x="25239980" y="158051500"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7817,7 +7817,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="158051500"/>
+          <a:off x="25239980" y="158051500"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7964,7 +7964,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="158051500"/>
+          <a:off x="25239980" y="158051500"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8111,7 +8111,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="158051500"/>
+          <a:off x="25239980" y="158051500"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8258,7 +8258,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="158737300"/>
+          <a:off x="25239980" y="158737300"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8405,7 +8405,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="158737300"/>
+          <a:off x="25239980" y="158737300"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8552,7 +8552,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="158737300"/>
+          <a:off x="25239980" y="158737300"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8699,7 +8699,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="158737300"/>
+          <a:off x="25239980" y="158737300"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8846,7 +8846,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="158565850"/>
+          <a:off x="25239980" y="158565850"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8993,7 +8993,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="158565850"/>
+          <a:off x="25239980" y="158565850"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9140,7 +9140,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="158565850"/>
+          <a:off x="25239980" y="158565850"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9287,7 +9287,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="158565850"/>
+          <a:off x="25239980" y="158565850"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9434,7 +9434,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="159251650"/>
+          <a:off x="25239980" y="159251650"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9581,7 +9581,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="159251650"/>
+          <a:off x="25239980" y="159251650"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9728,7 +9728,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="159251650"/>
+          <a:off x="25239980" y="159251650"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9875,7 +9875,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="159251650"/>
+          <a:off x="25239980" y="159251650"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10022,7 +10022,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="159080200"/>
+          <a:off x="25239980" y="159080200"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10169,7 +10169,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="159080200"/>
+          <a:off x="25239980" y="159080200"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10316,7 +10316,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="159080200"/>
+          <a:off x="25239980" y="159080200"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10463,7 +10463,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="159080200"/>
+          <a:off x="25239980" y="159080200"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10610,7 +10610,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="159766000"/>
+          <a:off x="25239980" y="159766000"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10757,7 +10757,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="159766000"/>
+          <a:off x="25239980" y="159766000"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10904,7 +10904,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="159766000"/>
+          <a:off x="25239980" y="159766000"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11051,7 +11051,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="159766000"/>
+          <a:off x="25239980" y="159766000"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11198,7 +11198,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="159594550"/>
+          <a:off x="25239980" y="159594550"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11345,7 +11345,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="159594550"/>
+          <a:off x="25239980" y="159594550"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11492,7 +11492,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="159594550"/>
+          <a:off x="25239980" y="159594550"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11639,7 +11639,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="159594550"/>
+          <a:off x="25239980" y="159594550"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11786,7 +11786,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="160280350"/>
+          <a:off x="25239980" y="160280350"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11933,7 +11933,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="160280350"/>
+          <a:off x="25239980" y="160280350"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12080,7 +12080,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="160280350"/>
+          <a:off x="25239980" y="160280350"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12227,7 +12227,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="160280350"/>
+          <a:off x="25239980" y="160280350"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12374,7 +12374,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="160108900"/>
+          <a:off x="25239980" y="160108900"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12521,7 +12521,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="160108900"/>
+          <a:off x="25239980" y="160108900"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12668,7 +12668,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="160108900"/>
+          <a:off x="25239980" y="160108900"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12815,7 +12815,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="160108900"/>
+          <a:off x="25239980" y="160108900"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12962,7 +12962,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="160794700"/>
+          <a:off x="25239980" y="160794700"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13109,7 +13109,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="160794700"/>
+          <a:off x="25239980" y="160794700"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13256,7 +13256,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="160794700"/>
+          <a:off x="25239980" y="160794700"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13403,7 +13403,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="160794700"/>
+          <a:off x="25239980" y="160794700"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13550,7 +13550,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="160623250"/>
+          <a:off x="25239980" y="160623250"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13697,7 +13697,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="160623250"/>
+          <a:off x="25239980" y="160623250"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13844,7 +13844,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="160623250"/>
+          <a:off x="25239980" y="160623250"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13991,7 +13991,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="160623250"/>
+          <a:off x="25239980" y="160623250"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14138,7 +14138,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="161651950"/>
+          <a:off x="25239980" y="161651950"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14285,7 +14285,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="161651950"/>
+          <a:off x="25239980" y="161651950"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14432,7 +14432,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="161651950"/>
+          <a:off x="25239980" y="161651950"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14579,7 +14579,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="161651950"/>
+          <a:off x="25239980" y="161651950"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14726,7 +14726,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="162509200"/>
+          <a:off x="25239980" y="162509200"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14873,7 +14873,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="162509200"/>
+          <a:off x="25239980" y="162509200"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15020,7 +15020,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="162509200"/>
+          <a:off x="25239980" y="162509200"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15167,7 +15167,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="162509200"/>
+          <a:off x="25239980" y="162509200"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15314,7 +15314,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="162337750"/>
+          <a:off x="25239980" y="162337750"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15461,7 +15461,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="162337750"/>
+          <a:off x="25239980" y="162337750"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15608,7 +15608,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="162337750"/>
+          <a:off x="25239980" y="162337750"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15755,7 +15755,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="162337750"/>
+          <a:off x="25239980" y="162337750"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15902,7 +15902,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="163023550"/>
+          <a:off x="25239980" y="163023550"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16049,7 +16049,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="163023550"/>
+          <a:off x="25239980" y="163023550"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16196,7 +16196,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="163023550"/>
+          <a:off x="25239980" y="163023550"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16343,7 +16343,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="163023550"/>
+          <a:off x="25239980" y="163023550"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16490,7 +16490,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="162852100"/>
+          <a:off x="25239980" y="162852100"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16637,7 +16637,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="162852100"/>
+          <a:off x="25239980" y="162852100"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16784,7 +16784,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="162852100"/>
+          <a:off x="25239980" y="162852100"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16931,7 +16931,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="162852100"/>
+          <a:off x="25239980" y="162852100"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17078,7 +17078,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="163537900"/>
+          <a:off x="25239980" y="163537900"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17225,7 +17225,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="163537900"/>
+          <a:off x="25239980" y="163537900"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17372,7 +17372,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="163537900"/>
+          <a:off x="25239980" y="163537900"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17519,7 +17519,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="163537900"/>
+          <a:off x="25239980" y="163537900"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17666,7 +17666,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="163366450"/>
+          <a:off x="25239980" y="163366450"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17813,7 +17813,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="163366450"/>
+          <a:off x="25239980" y="163366450"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17960,7 +17960,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="163366450"/>
+          <a:off x="25239980" y="163366450"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18107,7 +18107,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="163366450"/>
+          <a:off x="25239980" y="163366450"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18254,7 +18254,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="164052250"/>
+          <a:off x="25239980" y="164052250"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18401,7 +18401,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="164052250"/>
+          <a:off x="25239980" y="164052250"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18548,7 +18548,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="164052250"/>
+          <a:off x="25239980" y="164052250"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18695,7 +18695,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="164052250"/>
+          <a:off x="25239980" y="164052250"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18842,7 +18842,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="163880800"/>
+          <a:off x="25239980" y="163880800"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18989,7 +18989,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="163880800"/>
+          <a:off x="25239980" y="163880800"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19136,7 +19136,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="163880800"/>
+          <a:off x="25239980" y="163880800"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19283,7 +19283,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="163880800"/>
+          <a:off x="25239980" y="163880800"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19430,7 +19430,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="164566600"/>
+          <a:off x="25239980" y="164566600"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19577,7 +19577,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="164566600"/>
+          <a:off x="25239980" y="164566600"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19724,7 +19724,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="164566600"/>
+          <a:off x="25239980" y="164566600"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19871,7 +19871,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="164566600"/>
+          <a:off x="25239980" y="164566600"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20018,7 +20018,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="164395150"/>
+          <a:off x="25239980" y="164395150"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20165,7 +20165,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="164395150"/>
+          <a:off x="25239980" y="164395150"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20312,7 +20312,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="164395150"/>
+          <a:off x="25239980" y="164395150"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20459,7 +20459,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="164395150"/>
+          <a:off x="25239980" y="164395150"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20606,7 +20606,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="165080950"/>
+          <a:off x="25239980" y="165080950"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20753,7 +20753,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="165080950"/>
+          <a:off x="25239980" y="165080950"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20900,7 +20900,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="165080950"/>
+          <a:off x="25239980" y="165080950"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21047,7 +21047,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="165080950"/>
+          <a:off x="25239980" y="165080950"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21194,7 +21194,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="164909500"/>
+          <a:off x="25239980" y="164909500"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21341,7 +21341,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="164909500"/>
+          <a:off x="25239980" y="164909500"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21488,7 +21488,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="164909500"/>
+          <a:off x="25239980" y="164909500"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21635,7 +21635,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="164909500"/>
+          <a:off x="25239980" y="164909500"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21782,7 +21782,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="165595300"/>
+          <a:off x="25239980" y="165595300"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21929,7 +21929,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="165595300"/>
+          <a:off x="25239980" y="165595300"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22076,7 +22076,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="165595300"/>
+          <a:off x="25239980" y="165595300"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22223,7 +22223,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="165595300"/>
+          <a:off x="25239980" y="165595300"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22370,7 +22370,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="165423850"/>
+          <a:off x="25239980" y="165423850"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22517,7 +22517,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="165423850"/>
+          <a:off x="25239980" y="165423850"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22664,7 +22664,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="165423850"/>
+          <a:off x="25239980" y="165423850"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22811,7 +22811,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="165423850"/>
+          <a:off x="25239980" y="165423850"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22958,7 +22958,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="166109650"/>
+          <a:off x="25239980" y="166109650"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -23105,7 +23105,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="166109650"/>
+          <a:off x="25239980" y="166109650"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -23252,7 +23252,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="166109650"/>
+          <a:off x="25239980" y="166109650"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -23399,7 +23399,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="166109650"/>
+          <a:off x="25239980" y="166109650"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -23546,7 +23546,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="165938200"/>
+          <a:off x="25239980" y="165938200"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -23693,7 +23693,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="165938200"/>
+          <a:off x="25239980" y="165938200"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -23840,7 +23840,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="165938200"/>
+          <a:off x="25239980" y="165938200"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -23987,7 +23987,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="165938200"/>
+          <a:off x="25239980" y="165938200"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -24455,17 +24455,18 @@
   <dimension ref="A1:AN1096"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B648" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B622" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ654" sqref="AJ654"/>
+      <selection pane="bottomRight" activeCell="A653" sqref="$A653:$XFD653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="7" width="9" style="14"/>
-    <col min="8" max="34" width="9" style="14" hidden="1" customWidth="1"/>
+    <col min="8" max="33" width="9" style="14" customWidth="1"/>
+    <col min="34" max="34" width="15.7333333333333" style="14" customWidth="1"/>
     <col min="35" max="35" width="9" style="14"/>
     <col min="36" max="36" width="36.375" style="21" customWidth="1"/>
     <col min="37" max="37" width="9" style="21"/>
